--- a/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/全国居民消费价格分类指数(上月=100)(2016-).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/全国居民消费价格分类指数(上月=100)(2016-).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -483,2156 +483,2156 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.94347338</v>
+        <v>100.04260852</v>
       </c>
       <c r="C2" t="n">
-        <v>99.40970896</v>
+        <v>100.69065687</v>
       </c>
       <c r="D2" t="n">
-        <v>100.6072369</v>
+        <v>100.27898914</v>
       </c>
       <c r="E2" t="n">
-        <v>100.156455699999</v>
+        <v>100.08001736</v>
       </c>
       <c r="F2" t="n">
-        <v>99.87992688999989</v>
+        <v>100.53305958</v>
       </c>
       <c r="G2" t="n">
-        <v>99.67884447</v>
+        <v>100.64648726</v>
       </c>
       <c r="H2" t="n">
-        <v>100.0665757</v>
+        <v>100.14562496</v>
       </c>
       <c r="I2" t="n">
-        <v>100.606916999999</v>
+        <v>99.62941354</v>
       </c>
       <c r="J2" t="n">
-        <v>99.3624937099999</v>
+        <v>101.38837987</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.0058229</v>
+        <v>100.26168214</v>
       </c>
       <c r="C3" t="n">
-        <v>100.0135057</v>
+        <v>101.61754957</v>
       </c>
       <c r="D3" t="n">
-        <v>100.4082843</v>
+        <v>100.11991042</v>
       </c>
       <c r="E3" t="n">
-        <v>100.2345824</v>
+        <v>100.1330834</v>
       </c>
       <c r="F3" t="n">
-        <v>100.144379</v>
+        <v>101.56234821</v>
       </c>
       <c r="G3" t="n">
-        <v>99.66793328999999</v>
+        <v>100.57630938</v>
       </c>
       <c r="H3" t="n">
-        <v>100.0317495</v>
+        <v>100.12425892</v>
       </c>
       <c r="I3" t="n">
-        <v>100.5919532</v>
+        <v>99.6454359</v>
       </c>
       <c r="J3" t="n">
-        <v>100.1655698</v>
+        <v>104.63979827</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100.5318027</v>
+        <v>99.30851297</v>
       </c>
       <c r="C4" t="n">
-        <v>99.70132674</v>
+        <v>100.25310861</v>
       </c>
       <c r="D4" t="n">
-        <v>100.4940917</v>
+        <v>100.27879241</v>
       </c>
       <c r="E4" t="n">
-        <v>100.1686078</v>
+        <v>100.33833449</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2240058</v>
+        <v>99.56946232</v>
       </c>
       <c r="G4" t="n">
-        <v>100.0646732</v>
+        <v>99.2788348</v>
       </c>
       <c r="H4" t="n">
-        <v>100.1612828</v>
+        <v>99.83422754</v>
       </c>
       <c r="I4" t="n">
-        <v>99.86889927999999</v>
+        <v>100.49405722</v>
       </c>
       <c r="J4" t="n">
-        <v>100.2924024</v>
+        <v>98.7282239</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.04260852</v>
+        <v>100.05043825</v>
       </c>
       <c r="C5" t="n">
-        <v>100.69065687</v>
+        <v>100.14599103</v>
       </c>
       <c r="D5" t="n">
-        <v>100.27898914</v>
+        <v>100.34774833</v>
       </c>
       <c r="E5" t="n">
-        <v>100.08001736</v>
+        <v>100.1624662</v>
       </c>
       <c r="F5" t="n">
-        <v>100.53305958</v>
+        <v>99.82058635</v>
       </c>
       <c r="G5" t="n">
-        <v>100.64648726</v>
+        <v>100.11569664</v>
       </c>
       <c r="H5" t="n">
-        <v>100.14562496</v>
+        <v>100.05145074</v>
       </c>
       <c r="I5" t="n">
-        <v>99.62941354</v>
+        <v>100.13725009</v>
       </c>
       <c r="J5" t="n">
-        <v>101.38837987</v>
+        <v>99.09671754999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.26168214</v>
+        <v>100.34785958</v>
       </c>
       <c r="C6" t="n">
-        <v>101.61754957</v>
+        <v>100.31581915</v>
       </c>
       <c r="D6" t="n">
-        <v>100.11991042</v>
+        <v>100.22609375</v>
       </c>
       <c r="E6" t="n">
-        <v>100.1330834</v>
+        <v>100.06465004</v>
       </c>
       <c r="F6" t="n">
-        <v>101.56234821</v>
+        <v>99.54414484</v>
       </c>
       <c r="G6" t="n">
-        <v>100.57630938</v>
+        <v>99.90390698</v>
       </c>
       <c r="H6" t="n">
-        <v>100.12425892</v>
+        <v>100.02241282</v>
       </c>
       <c r="I6" t="n">
-        <v>99.6454359</v>
+        <v>100.1265424</v>
       </c>
       <c r="J6" t="n">
-        <v>104.63979827</v>
+        <v>98.23925788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.30851297</v>
+        <v>100.65929895</v>
       </c>
       <c r="C7" t="n">
-        <v>100.25310861</v>
+        <v>100.13763503</v>
       </c>
       <c r="D7" t="n">
-        <v>100.27879241</v>
+        <v>100.45662169</v>
       </c>
       <c r="E7" t="n">
-        <v>100.33833449</v>
+        <v>100.09827142</v>
       </c>
       <c r="F7" t="n">
-        <v>99.56946232</v>
+        <v>99.86876515</v>
       </c>
       <c r="G7" t="n">
-        <v>99.2788348</v>
+        <v>100.31930482</v>
       </c>
       <c r="H7" t="n">
-        <v>99.83422754</v>
+        <v>100.01209527</v>
       </c>
       <c r="I7" t="n">
-        <v>100.49405722</v>
+        <v>99.68612245</v>
       </c>
       <c r="J7" t="n">
-        <v>98.7282239</v>
+        <v>99.06182769999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.05043825</v>
+        <v>100.09722022</v>
       </c>
       <c r="C8" t="n">
-        <v>100.14599103</v>
+        <v>101.35808474</v>
       </c>
       <c r="D8" t="n">
-        <v>100.34774833</v>
+        <v>100.71928573</v>
       </c>
       <c r="E8" t="n">
-        <v>100.1624662</v>
+        <v>100.14525573</v>
       </c>
       <c r="F8" t="n">
-        <v>99.82058635</v>
+        <v>100.19454943</v>
       </c>
       <c r="G8" t="n">
-        <v>100.11569664</v>
+        <v>101.01503979</v>
       </c>
       <c r="H8" t="n">
-        <v>100.05145074</v>
+        <v>100.02925441</v>
       </c>
       <c r="I8" t="n">
-        <v>100.13725009</v>
+        <v>99.57980134</v>
       </c>
       <c r="J8" t="n">
-        <v>99.09671754999999</v>
+        <v>99.89618238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100.34785958</v>
+        <v>99.36863912</v>
       </c>
       <c r="C9" t="n">
-        <v>100.31581915</v>
+        <v>100.1269274</v>
       </c>
       <c r="D9" t="n">
-        <v>100.22609375</v>
+        <v>100.3302374</v>
       </c>
       <c r="E9" t="n">
-        <v>100.06465004</v>
+        <v>100.2017276</v>
       </c>
       <c r="F9" t="n">
-        <v>99.54414484</v>
+        <v>100.0600045</v>
       </c>
       <c r="G9" t="n">
-        <v>99.90390698</v>
+        <v>99.86115035</v>
       </c>
       <c r="H9" t="n">
-        <v>100.02241282</v>
+        <v>99.97118373000001</v>
       </c>
       <c r="I9" t="n">
-        <v>100.1265424</v>
+        <v>99.92780820999999</v>
       </c>
       <c r="J9" t="n">
-        <v>98.23925788</v>
+        <v>100.2901011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.65929895</v>
+        <v>100.3236432</v>
       </c>
       <c r="C10" t="n">
-        <v>100.13763503</v>
+        <v>100.1782208</v>
       </c>
       <c r="D10" t="n">
-        <v>100.45662169</v>
+        <v>100.233985799999</v>
       </c>
       <c r="E10" t="n">
-        <v>100.09827142</v>
+        <v>100.266422399999</v>
       </c>
       <c r="F10" t="n">
-        <v>99.86876515</v>
+        <v>100.672646799999</v>
       </c>
       <c r="G10" t="n">
-        <v>100.31930482</v>
+        <v>101.1849629</v>
       </c>
       <c r="H10" t="n">
-        <v>100.01209527</v>
+        <v>99.96119903</v>
       </c>
       <c r="I10" t="n">
-        <v>99.68612245</v>
+        <v>100.8401673</v>
       </c>
       <c r="J10" t="n">
-        <v>99.06182769999999</v>
+        <v>101.172219999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.09722022</v>
+        <v>99.94347338</v>
       </c>
       <c r="C11" t="n">
-        <v>101.35808474</v>
+        <v>99.40970896</v>
       </c>
       <c r="D11" t="n">
-        <v>100.71928573</v>
+        <v>100.6072369</v>
       </c>
       <c r="E11" t="n">
-        <v>100.14525573</v>
+        <v>100.156455699999</v>
       </c>
       <c r="F11" t="n">
-        <v>100.19454943</v>
+        <v>99.87992688999989</v>
       </c>
       <c r="G11" t="n">
-        <v>101.01503979</v>
+        <v>99.67884447</v>
       </c>
       <c r="H11" t="n">
-        <v>100.02925441</v>
+        <v>100.0665757</v>
       </c>
       <c r="I11" t="n">
-        <v>99.57980134</v>
+        <v>100.606916999999</v>
       </c>
       <c r="J11" t="n">
-        <v>99.89618238</v>
+        <v>99.3624937099999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.36863912</v>
+        <v>100.0058229</v>
       </c>
       <c r="C12" t="n">
-        <v>100.1269274</v>
+        <v>100.0135057</v>
       </c>
       <c r="D12" t="n">
-        <v>100.3302374</v>
+        <v>100.4082843</v>
       </c>
       <c r="E12" t="n">
-        <v>100.2017276</v>
+        <v>100.2345824</v>
       </c>
       <c r="F12" t="n">
-        <v>100.0600045</v>
+        <v>100.144379</v>
       </c>
       <c r="G12" t="n">
-        <v>99.86115035</v>
+        <v>99.66793328999999</v>
       </c>
       <c r="H12" t="n">
-        <v>99.97118373000001</v>
+        <v>100.0317495</v>
       </c>
       <c r="I12" t="n">
-        <v>99.92780820999999</v>
+        <v>100.5919532</v>
       </c>
       <c r="J12" t="n">
-        <v>100.2901011</v>
+        <v>100.1655698</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.3236432</v>
+        <v>100.5318027</v>
       </c>
       <c r="C13" t="n">
-        <v>100.1782208</v>
+        <v>99.70132674</v>
       </c>
       <c r="D13" t="n">
-        <v>100.233985799999</v>
+        <v>100.4940917</v>
       </c>
       <c r="E13" t="n">
-        <v>100.266422399999</v>
+        <v>100.1686078</v>
       </c>
       <c r="F13" t="n">
-        <v>100.672646799999</v>
+        <v>100.2240058</v>
       </c>
       <c r="G13" t="n">
-        <v>101.1849629</v>
+        <v>100.0646732</v>
       </c>
       <c r="H13" t="n">
-        <v>99.96119903</v>
+        <v>100.1612828</v>
       </c>
       <c r="I13" t="n">
-        <v>100.8401673</v>
+        <v>99.86889927999999</v>
       </c>
       <c r="J13" t="n">
-        <v>101.172219999999</v>
+        <v>100.2924024</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100.2449328</v>
+        <v>101.4422926</v>
       </c>
       <c r="C14" t="n">
-        <v>99.77129367000001</v>
+        <v>101.4582096</v>
       </c>
       <c r="D14" t="n">
-        <v>100.2445526</v>
+        <v>100.6392304</v>
       </c>
       <c r="E14" t="n">
-        <v>100.2354649</v>
+        <v>100.2704383</v>
       </c>
       <c r="F14" t="n">
-        <v>100.1122281</v>
+        <v>100.9984247</v>
       </c>
       <c r="G14" t="n">
-        <v>99.65043980999999</v>
+        <v>101.6475941</v>
       </c>
       <c r="H14" t="n">
-        <v>100.1761807</v>
+        <v>100.3323105</v>
       </c>
       <c r="I14" t="n">
-        <v>100.5415167</v>
+        <v>99.55339859999999</v>
       </c>
       <c r="J14" t="n">
-        <v>100.0210425</v>
+        <v>101.663984</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100.4973804</v>
+        <v>99.58873438000001</v>
       </c>
       <c r="C15" t="n">
-        <v>99.9634269</v>
+        <v>99.98996004</v>
       </c>
       <c r="D15" t="n">
-        <v>100.1849045</v>
+        <v>100.26318038</v>
       </c>
       <c r="E15" t="n">
-        <v>100.2039295</v>
+        <v>100.4081267</v>
       </c>
       <c r="F15" t="n">
-        <v>100.0128196</v>
+        <v>99.83211425</v>
       </c>
       <c r="G15" t="n">
-        <v>99.46247624999999</v>
+        <v>99.05610969</v>
       </c>
       <c r="H15" t="n">
-        <v>100.088724</v>
+        <v>100.00561312</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5201878</v>
+        <v>99.7431612</v>
       </c>
       <c r="J15" t="n">
-        <v>99.69850642999999</v>
+        <v>99.68068355</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100.3656583</v>
+        <v>99.63764854999999</v>
       </c>
       <c r="C16" t="n">
-        <v>99.88152244</v>
+        <v>100.0129051</v>
       </c>
       <c r="D16" t="n">
-        <v>100.1470725</v>
+        <v>100.4836886</v>
       </c>
       <c r="E16" t="n">
-        <v>100.1557428</v>
+        <v>100.2380448</v>
       </c>
       <c r="F16" t="n">
-        <v>100.3359776</v>
+        <v>99.68318746999999</v>
       </c>
       <c r="G16" t="n">
-        <v>100.0877807</v>
+        <v>99.83827963</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2080217</v>
+        <v>100.0233155</v>
       </c>
       <c r="I16" t="n">
-        <v>99.96718258</v>
+        <v>100.5942341</v>
       </c>
       <c r="J16" t="n">
-        <v>100.7833704</v>
+        <v>98.69313812</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.4422926</v>
+        <v>99.83929774000001</v>
       </c>
       <c r="C17" t="n">
-        <v>101.4582096</v>
+        <v>100.6903188</v>
       </c>
       <c r="D17" t="n">
-        <v>100.6392304</v>
+        <v>100.6931511</v>
       </c>
       <c r="E17" t="n">
-        <v>100.2704383</v>
+        <v>100.1416315</v>
       </c>
       <c r="F17" t="n">
-        <v>100.9984247</v>
+        <v>100.0665377</v>
       </c>
       <c r="G17" t="n">
-        <v>101.6475941</v>
+        <v>100.353329</v>
       </c>
       <c r="H17" t="n">
-        <v>100.3323105</v>
+        <v>100.2277874</v>
       </c>
       <c r="I17" t="n">
-        <v>99.55339859999999</v>
+        <v>100.1947571</v>
       </c>
       <c r="J17" t="n">
-        <v>101.663984</v>
+        <v>99.6919329</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.58873438000001</v>
+        <v>99.69450037</v>
       </c>
       <c r="C18" t="n">
-        <v>99.98996004</v>
+        <v>99.77058522999999</v>
       </c>
       <c r="D18" t="n">
-        <v>100.26318038</v>
+        <v>100.3734001</v>
       </c>
       <c r="E18" t="n">
-        <v>100.4081267</v>
+        <v>100.105543</v>
       </c>
       <c r="F18" t="n">
-        <v>99.83211425</v>
+        <v>99.88978174</v>
       </c>
       <c r="G18" t="n">
-        <v>99.05610969</v>
+        <v>99.87928737</v>
       </c>
       <c r="H18" t="n">
-        <v>100.00561312</v>
+        <v>100.1806069</v>
       </c>
       <c r="I18" t="n">
-        <v>99.7431612</v>
+        <v>100.1460531</v>
       </c>
       <c r="J18" t="n">
-        <v>99.68068355</v>
+        <v>99.56799545</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.63764854999999</v>
+        <v>99.69349011</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0129051</v>
+        <v>100.0568114</v>
       </c>
       <c r="D19" t="n">
-        <v>100.4836886</v>
+        <v>100.3200609</v>
       </c>
       <c r="E19" t="n">
-        <v>100.2380448</v>
+        <v>100.1545769</v>
       </c>
       <c r="F19" t="n">
-        <v>99.68318746999999</v>
+        <v>99.84786214</v>
       </c>
       <c r="G19" t="n">
-        <v>99.83827963</v>
+        <v>100.2667512</v>
       </c>
       <c r="H19" t="n">
-        <v>100.0233155</v>
+        <v>100.0810331</v>
       </c>
       <c r="I19" t="n">
-        <v>100.5942341</v>
+        <v>99.76463931000001</v>
       </c>
       <c r="J19" t="n">
-        <v>98.69313812</v>
+        <v>99.3457372</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.83929774000001</v>
+        <v>99.71228193</v>
       </c>
       <c r="C20" t="n">
-        <v>100.6903188</v>
+        <v>99.91584954</v>
       </c>
       <c r="D20" t="n">
-        <v>100.6931511</v>
+        <v>100.5174</v>
       </c>
       <c r="E20" t="n">
-        <v>100.1416315</v>
+        <v>100.1224274</v>
       </c>
       <c r="F20" t="n">
-        <v>100.0665377</v>
+        <v>100.1066159</v>
       </c>
       <c r="G20" t="n">
-        <v>100.353329</v>
+        <v>100.9840642</v>
       </c>
       <c r="H20" t="n">
-        <v>100.2277874</v>
+        <v>100.0892806</v>
       </c>
       <c r="I20" t="n">
-        <v>100.1947571</v>
+        <v>99.57144303</v>
       </c>
       <c r="J20" t="n">
-        <v>99.6919329</v>
+        <v>99.96362565</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>99.69450037</v>
+        <v>100.3213519</v>
       </c>
       <c r="C21" t="n">
-        <v>99.77058522999999</v>
+        <v>100.1764416</v>
       </c>
       <c r="D21" t="n">
-        <v>100.3734001</v>
+        <v>100.7438293</v>
       </c>
       <c r="E21" t="n">
-        <v>100.105543</v>
+        <v>100.3767072</v>
       </c>
       <c r="F21" t="n">
-        <v>99.88978174</v>
+        <v>100.4156853</v>
       </c>
       <c r="G21" t="n">
-        <v>99.87928737</v>
+        <v>99.89953687000001</v>
       </c>
       <c r="H21" t="n">
-        <v>100.1806069</v>
+        <v>100.086433</v>
       </c>
       <c r="I21" t="n">
-        <v>100.1460531</v>
+        <v>99.7866995</v>
       </c>
       <c r="J21" t="n">
-        <v>99.56799545</v>
+        <v>100.860336</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.69349011</v>
+        <v>100.1310424</v>
       </c>
       <c r="C22" t="n">
-        <v>100.0568114</v>
+        <v>100.2246433</v>
       </c>
       <c r="D22" t="n">
-        <v>100.3200609</v>
+        <v>101.7910192</v>
       </c>
       <c r="E22" t="n">
-        <v>100.1545769</v>
+        <v>100.3415556</v>
       </c>
       <c r="F22" t="n">
-        <v>99.84786214</v>
+        <v>100.5388975</v>
       </c>
       <c r="G22" t="n">
-        <v>100.2667512</v>
+        <v>100.9481593</v>
       </c>
       <c r="H22" t="n">
-        <v>100.0810331</v>
+        <v>100.0738357</v>
       </c>
       <c r="I22" t="n">
-        <v>99.76463931000001</v>
+        <v>100.8779037</v>
       </c>
       <c r="J22" t="n">
-        <v>99.3457372</v>
+        <v>100.3724364</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>99.71228193</v>
+        <v>100.2449328</v>
       </c>
       <c r="C23" t="n">
-        <v>99.91584954</v>
+        <v>99.77129367000001</v>
       </c>
       <c r="D23" t="n">
-        <v>100.5174</v>
+        <v>100.2445526</v>
       </c>
       <c r="E23" t="n">
-        <v>100.1224274</v>
+        <v>100.2354649</v>
       </c>
       <c r="F23" t="n">
-        <v>100.1066159</v>
+        <v>100.1122281</v>
       </c>
       <c r="G23" t="n">
-        <v>100.9840642</v>
+        <v>99.65043980999999</v>
       </c>
       <c r="H23" t="n">
-        <v>100.0892806</v>
+        <v>100.1761807</v>
       </c>
       <c r="I23" t="n">
-        <v>99.57144303</v>
+        <v>100.5415167</v>
       </c>
       <c r="J23" t="n">
-        <v>99.96362565</v>
+        <v>100.0210425</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>100.3213519</v>
+        <v>100.4973804</v>
       </c>
       <c r="C24" t="n">
-        <v>100.1764416</v>
+        <v>99.9634269</v>
       </c>
       <c r="D24" t="n">
-        <v>100.7438293</v>
+        <v>100.1849045</v>
       </c>
       <c r="E24" t="n">
-        <v>100.3767072</v>
+        <v>100.2039295</v>
       </c>
       <c r="F24" t="n">
-        <v>100.4156853</v>
+        <v>100.0128196</v>
       </c>
       <c r="G24" t="n">
-        <v>99.89953687000001</v>
+        <v>99.46247624999999</v>
       </c>
       <c r="H24" t="n">
-        <v>100.086433</v>
+        <v>100.088724</v>
       </c>
       <c r="I24" t="n">
-        <v>99.7866995</v>
+        <v>100.5201878</v>
       </c>
       <c r="J24" t="n">
-        <v>100.860336</v>
+        <v>99.69850642999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.1310424</v>
+        <v>100.3656583</v>
       </c>
       <c r="C25" t="n">
-        <v>100.2246433</v>
+        <v>99.88152244</v>
       </c>
       <c r="D25" t="n">
-        <v>101.7910192</v>
+        <v>100.1470725</v>
       </c>
       <c r="E25" t="n">
-        <v>100.3415556</v>
+        <v>100.1557428</v>
       </c>
       <c r="F25" t="n">
-        <v>100.5388975</v>
+        <v>100.3359776</v>
       </c>
       <c r="G25" t="n">
-        <v>100.9481593</v>
+        <v>100.0877807</v>
       </c>
       <c r="H25" t="n">
-        <v>100.0738357</v>
+        <v>100.2080217</v>
       </c>
       <c r="I25" t="n">
-        <v>100.8779037</v>
+        <v>99.96718258</v>
       </c>
       <c r="J25" t="n">
-        <v>100.3724364</v>
+        <v>100.7833704</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.6489413</v>
+        <v>100.4464078</v>
       </c>
       <c r="C26" t="n">
-        <v>100.29693091</v>
+        <v>100.7531258</v>
       </c>
       <c r="D26" t="n">
-        <v>100.16778514</v>
+        <v>100.2447392</v>
       </c>
       <c r="E26" t="n">
-        <v>100.1963765</v>
+        <v>100.145244</v>
       </c>
       <c r="F26" t="n">
-        <v>100.18135545</v>
+        <v>100.621346</v>
       </c>
       <c r="G26" t="n">
-        <v>99.96230648</v>
+        <v>100.493597</v>
       </c>
       <c r="H26" t="n">
-        <v>100.09684695</v>
+        <v>100.2743404</v>
       </c>
       <c r="I26" t="n">
-        <v>100.7731348</v>
+        <v>99.65343125</v>
       </c>
       <c r="J26" t="n">
-        <v>99.92169908</v>
+        <v>101.5181078</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>98.96992363</v>
+        <v>100.9384706</v>
       </c>
       <c r="C27" t="n">
-        <v>100.18344601</v>
+        <v>100.4408175</v>
       </c>
       <c r="D27" t="n">
-        <v>100.17482467</v>
+        <v>100.1355227</v>
       </c>
       <c r="E27" t="n">
-        <v>100.04880071</v>
+        <v>99.99925103</v>
       </c>
       <c r="F27" t="n">
-        <v>99.65379280000001</v>
+        <v>101.2448861</v>
       </c>
       <c r="G27" t="n">
-        <v>99.44428195</v>
+        <v>101.7952551</v>
       </c>
       <c r="H27" t="n">
-        <v>100.0538091</v>
+        <v>100.3056179</v>
       </c>
       <c r="I27" t="n">
-        <v>100.450762</v>
+        <v>99.44934759</v>
       </c>
       <c r="J27" t="n">
-        <v>99.22757025</v>
+        <v>103.1156164</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.10543853</v>
+        <v>98.46154369999999</v>
       </c>
       <c r="C28" t="n">
-        <v>100.0245149</v>
+        <v>99.54532958</v>
       </c>
       <c r="D28" t="n">
-        <v>100.12403524</v>
+        <v>100.2088454</v>
       </c>
       <c r="E28" t="n">
-        <v>100.0007414</v>
+        <v>100.2398749</v>
       </c>
       <c r="F28" t="n">
-        <v>100.02729293</v>
+        <v>98.86247096</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97153056000001</v>
+        <v>98.3588993</v>
       </c>
       <c r="H28" t="n">
-        <v>100.17765397</v>
+        <v>99.78564622</v>
       </c>
       <c r="I28" t="n">
-        <v>100.13142198</v>
+        <v>100.5995895</v>
       </c>
       <c r="J28" t="n">
-        <v>100.75495248</v>
+        <v>97.18381737</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.4464078</v>
+        <v>100.6</v>
       </c>
       <c r="C29" t="n">
-        <v>100.7531258</v>
+        <v>100.4</v>
       </c>
       <c r="D29" t="n">
-        <v>100.2447392</v>
+        <v>100.2</v>
       </c>
       <c r="E29" t="n">
-        <v>100.145244</v>
+        <v>100.1</v>
       </c>
       <c r="F29" t="n">
-        <v>100.621346</v>
+        <v>99.8</v>
       </c>
       <c r="G29" t="n">
-        <v>100.493597</v>
+        <v>100.2</v>
       </c>
       <c r="H29" t="n">
-        <v>100.2743404</v>
+        <v>100.2</v>
       </c>
       <c r="I29" t="n">
-        <v>99.65343125</v>
+        <v>100.2</v>
       </c>
       <c r="J29" t="n">
-        <v>101.5181078</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.9384706</v>
+        <v>100.4</v>
       </c>
       <c r="C30" t="n">
-        <v>100.4408175</v>
+        <v>99.8</v>
       </c>
       <c r="D30" t="n">
-        <v>100.1355227</v>
+        <v>100.2</v>
       </c>
       <c r="E30" t="n">
-        <v>99.99925103</v>
+        <v>100.1</v>
       </c>
       <c r="F30" t="n">
-        <v>101.2448861</v>
+        <v>99.8</v>
       </c>
       <c r="G30" t="n">
-        <v>101.7952551</v>
+        <v>99.8</v>
       </c>
       <c r="H30" t="n">
-        <v>100.3056179</v>
+        <v>100.1</v>
       </c>
       <c r="I30" t="n">
-        <v>99.44934759</v>
+        <v>100.2</v>
       </c>
       <c r="J30" t="n">
-        <v>103.1156164</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.46154369999999</v>
+        <v>100.28612253</v>
       </c>
       <c r="C31" t="n">
-        <v>99.54532958</v>
+        <v>99.97640579999999</v>
       </c>
       <c r="D31" t="n">
-        <v>100.2088454</v>
+        <v>100.19319766</v>
       </c>
       <c r="E31" t="n">
-        <v>100.2398749</v>
+        <v>100.17704237</v>
       </c>
       <c r="F31" t="n">
-        <v>98.86247096</v>
+        <v>99.94906442</v>
       </c>
       <c r="G31" t="n">
-        <v>98.3588993</v>
+        <v>100.20483327</v>
       </c>
       <c r="H31" t="n">
-        <v>99.78564622</v>
+        <v>100.11150182</v>
       </c>
       <c r="I31" t="n">
-        <v>100.5995895</v>
+        <v>99.78271224</v>
       </c>
       <c r="J31" t="n">
-        <v>97.18381737</v>
+        <v>99.48034646000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.6</v>
+        <v>100.30334551</v>
       </c>
       <c r="C32" t="n">
-        <v>100.4</v>
+        <v>100.249476</v>
       </c>
       <c r="D32" t="n">
-        <v>100.2</v>
+        <v>100.21710111</v>
       </c>
       <c r="E32" t="n">
-        <v>100.1</v>
+        <v>100.2287194</v>
       </c>
       <c r="F32" t="n">
-        <v>99.8</v>
+        <v>100.30887409</v>
       </c>
       <c r="G32" t="n">
-        <v>100.2</v>
+        <v>101.4627255</v>
       </c>
       <c r="H32" t="n">
-        <v>100.2</v>
+        <v>100.11932745</v>
       </c>
       <c r="I32" t="n">
-        <v>100.2</v>
+        <v>99.6396336</v>
       </c>
       <c r="J32" t="n">
-        <v>98.8</v>
+        <v>100.16607356</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100.4</v>
+        <v>99.97889271</v>
       </c>
       <c r="C33" t="n">
-        <v>99.8</v>
+        <v>100.11959021</v>
       </c>
       <c r="D33" t="n">
-        <v>100.2</v>
+        <v>100.39696027</v>
       </c>
       <c r="E33" t="n">
-        <v>100.1</v>
+        <v>100.5368676</v>
       </c>
       <c r="F33" t="n">
-        <v>99.8</v>
+        <v>100.65548301</v>
       </c>
       <c r="G33" t="n">
-        <v>99.8</v>
+        <v>100.16880296</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1</v>
+        <v>100.09626397</v>
       </c>
       <c r="I33" t="n">
-        <v>100.2</v>
+        <v>99.90738908</v>
       </c>
       <c r="J33" t="n">
-        <v>99.2</v>
+        <v>101.66979556</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.28612253</v>
+        <v>100.25669433</v>
       </c>
       <c r="C34" t="n">
-        <v>99.97640579999999</v>
+        <v>99.78757658000001</v>
       </c>
       <c r="D34" t="n">
-        <v>100.19319766</v>
+        <v>100.199913</v>
       </c>
       <c r="E34" t="n">
-        <v>100.17704237</v>
+        <v>100.38514768</v>
       </c>
       <c r="F34" t="n">
-        <v>99.94906442</v>
+        <v>100.70523182</v>
       </c>
       <c r="G34" t="n">
-        <v>100.20483327</v>
+        <v>100.51558479</v>
       </c>
       <c r="H34" t="n">
-        <v>100.11150182</v>
+        <v>100.10789058</v>
       </c>
       <c r="I34" t="n">
-        <v>99.78271224</v>
+        <v>100.74853497</v>
       </c>
       <c r="J34" t="n">
-        <v>99.48034646000001</v>
+        <v>101.54818382</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.30334551</v>
+        <v>100.6489413</v>
       </c>
       <c r="C35" t="n">
-        <v>100.249476</v>
+        <v>100.29693091</v>
       </c>
       <c r="D35" t="n">
-        <v>100.21710111</v>
+        <v>100.16778514</v>
       </c>
       <c r="E35" t="n">
-        <v>100.2287194</v>
+        <v>100.1963765</v>
       </c>
       <c r="F35" t="n">
-        <v>100.30887409</v>
+        <v>100.18135545</v>
       </c>
       <c r="G35" t="n">
-        <v>101.4627255</v>
+        <v>99.96230648</v>
       </c>
       <c r="H35" t="n">
-        <v>100.11932745</v>
+        <v>100.09684695</v>
       </c>
       <c r="I35" t="n">
-        <v>99.6396336</v>
+        <v>100.7731348</v>
       </c>
       <c r="J35" t="n">
-        <v>100.16607356</v>
+        <v>99.92169908</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>99.97889271</v>
+        <v>98.96992363</v>
       </c>
       <c r="C36" t="n">
-        <v>100.11959021</v>
+        <v>100.18344601</v>
       </c>
       <c r="D36" t="n">
-        <v>100.39696027</v>
+        <v>100.17482467</v>
       </c>
       <c r="E36" t="n">
-        <v>100.5368676</v>
+        <v>100.04880071</v>
       </c>
       <c r="F36" t="n">
-        <v>100.65548301</v>
+        <v>99.65379280000001</v>
       </c>
       <c r="G36" t="n">
-        <v>100.16880296</v>
+        <v>99.44428195</v>
       </c>
       <c r="H36" t="n">
-        <v>100.09626397</v>
+        <v>100.0538091</v>
       </c>
       <c r="I36" t="n">
-        <v>99.90738908</v>
+        <v>100.450762</v>
       </c>
       <c r="J36" t="n">
-        <v>101.66979556</v>
+        <v>99.22757025</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100.25669433</v>
+        <v>98.10543853</v>
       </c>
       <c r="C37" t="n">
-        <v>99.78757658000001</v>
+        <v>100.0245149</v>
       </c>
       <c r="D37" t="n">
-        <v>100.199913</v>
+        <v>100.12403524</v>
       </c>
       <c r="E37" t="n">
-        <v>100.38514768</v>
+        <v>100.0007414</v>
       </c>
       <c r="F37" t="n">
-        <v>100.70523182</v>
+        <v>100.02729293</v>
       </c>
       <c r="G37" t="n">
-        <v>100.51558479</v>
+        <v>99.97153056000001</v>
       </c>
       <c r="H37" t="n">
-        <v>100.10789058</v>
+        <v>100.17765397</v>
       </c>
       <c r="I37" t="n">
-        <v>100.74853497</v>
+        <v>100.13142198</v>
       </c>
       <c r="J37" t="n">
-        <v>101.54818382</v>
+        <v>100.75495248</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100.07136075</v>
+        <v>99.82777969999999</v>
       </c>
       <c r="C38" t="n">
-        <v>100.07975638</v>
+        <v>101.38765077</v>
       </c>
       <c r="D38" t="n">
-        <v>100.07492473</v>
+        <v>100.36274237</v>
       </c>
       <c r="E38" t="n">
-        <v>99.98970070999999</v>
+        <v>99.99157533</v>
       </c>
       <c r="F38" t="n">
-        <v>100.89322145</v>
+        <v>100.50252218</v>
       </c>
       <c r="G38" t="n">
-        <v>100.12184219</v>
+        <v>101.0175008</v>
       </c>
       <c r="H38" t="n">
-        <v>100.08300133</v>
+        <v>100.3477009</v>
       </c>
       <c r="I38" t="n">
-        <v>100.30749622</v>
+        <v>99.71725099</v>
       </c>
       <c r="J38" t="n">
-        <v>102.68061575</v>
+        <v>101.1306617</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>99.71099753</v>
+        <v>101.00193251</v>
       </c>
       <c r="C39" t="n">
-        <v>99.22805133</v>
+        <v>100.18365747</v>
       </c>
       <c r="D39" t="n">
-        <v>100.07300518</v>
+        <v>100.22653406</v>
       </c>
       <c r="E39" t="n">
-        <v>99.96227309</v>
+        <v>100.13778598</v>
       </c>
       <c r="F39" t="n">
-        <v>100.35813095</v>
+        <v>100.99247533</v>
       </c>
       <c r="G39" t="n">
-        <v>99.27729465</v>
+        <v>101.28200329</v>
       </c>
       <c r="H39" t="n">
-        <v>99.90686857</v>
+        <v>100.09174157</v>
       </c>
       <c r="I39" t="n">
-        <v>100.34944757</v>
+        <v>99.81176932</v>
       </c>
       <c r="J39" t="n">
-        <v>101.50227305</v>
+        <v>102.28665605</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.1520816</v>
+        <v>99.71805857</v>
       </c>
       <c r="C40" t="n">
-        <v>99.91906007999999</v>
+        <v>99.48204713</v>
       </c>
       <c r="D40" t="n">
-        <v>100.17392481</v>
+        <v>100.14287645</v>
       </c>
       <c r="E40" t="n">
-        <v>100.0862068</v>
+        <v>100.09614026</v>
       </c>
       <c r="F40" t="n">
-        <v>99.99546073</v>
+        <v>99.6316896</v>
       </c>
       <c r="G40" t="n">
-        <v>100.04548346</v>
+        <v>98.41239760000001</v>
       </c>
       <c r="H40" t="n">
-        <v>100.10864497</v>
+        <v>99.66338311</v>
       </c>
       <c r="I40" t="n">
-        <v>99.86274619</v>
+        <v>100.60787917</v>
       </c>
       <c r="J40" t="n">
-        <v>99.83833955</v>
+        <v>99.35689198999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>99.82777969999999</v>
+        <v>100.03871284</v>
       </c>
       <c r="C41" t="n">
-        <v>101.38765077</v>
+        <v>100.3775039</v>
       </c>
       <c r="D41" t="n">
-        <v>100.36274237</v>
+        <v>100.09971</v>
       </c>
       <c r="E41" t="n">
-        <v>99.99157533</v>
+        <v>100.04354491</v>
       </c>
       <c r="F41" t="n">
-        <v>100.50252218</v>
+        <v>100.07434424</v>
       </c>
       <c r="G41" t="n">
-        <v>101.0175008</v>
+        <v>100.32813775</v>
       </c>
       <c r="H41" t="n">
-        <v>100.3477009</v>
+        <v>100.07146385</v>
       </c>
       <c r="I41" t="n">
-        <v>99.71725099</v>
+        <v>100.04507051</v>
       </c>
       <c r="J41" t="n">
-        <v>101.1306617</v>
+        <v>99.98327274</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>101.00193251</v>
+        <v>99.99964928999999</v>
       </c>
       <c r="C42" t="n">
-        <v>100.18365747</v>
+        <v>100.0209883</v>
       </c>
       <c r="D42" t="n">
-        <v>100.22653406</v>
+        <v>100.13117612</v>
       </c>
       <c r="E42" t="n">
-        <v>100.13778598</v>
+        <v>99.96327728999999</v>
       </c>
       <c r="F42" t="n">
-        <v>100.99247533</v>
+        <v>100.03649242</v>
       </c>
       <c r="G42" t="n">
-        <v>101.28200329</v>
+        <v>99.82582626999999</v>
       </c>
       <c r="H42" t="n">
-        <v>100.09174157</v>
+        <v>100.02452013</v>
       </c>
       <c r="I42" t="n">
-        <v>99.81176932</v>
+        <v>100.11668466</v>
       </c>
       <c r="J42" t="n">
-        <v>102.28665605</v>
+        <v>100.14052566</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.71805857</v>
+        <v>99.28993475</v>
       </c>
       <c r="C43" t="n">
-        <v>99.48204713</v>
+        <v>100.56690895</v>
       </c>
       <c r="D43" t="n">
-        <v>100.14287645</v>
+        <v>100.26952596</v>
       </c>
       <c r="E43" t="n">
-        <v>100.09614026</v>
+        <v>99.95526141000001</v>
       </c>
       <c r="F43" t="n">
-        <v>99.6316896</v>
+        <v>99.88935613</v>
       </c>
       <c r="G43" t="n">
-        <v>98.41239760000001</v>
+        <v>100.01902577</v>
       </c>
       <c r="H43" t="n">
-        <v>99.66338311</v>
+        <v>99.94283691</v>
       </c>
       <c r="I43" t="n">
-        <v>100.60787917</v>
+        <v>99.85626359</v>
       </c>
       <c r="J43" t="n">
-        <v>99.35689198999999</v>
+        <v>99.84576272</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.03871284</v>
+        <v>100.05017098</v>
       </c>
       <c r="C44" t="n">
-        <v>100.3775039</v>
+        <v>100.88988856</v>
       </c>
       <c r="D44" t="n">
-        <v>100.09971</v>
+        <v>100.24730704</v>
       </c>
       <c r="E44" t="n">
-        <v>100.04354491</v>
+        <v>100.0905517</v>
       </c>
       <c r="F44" t="n">
-        <v>100.07434424</v>
+        <v>100.40773131</v>
       </c>
       <c r="G44" t="n">
-        <v>100.32813775</v>
+        <v>101.31922889</v>
       </c>
       <c r="H44" t="n">
-        <v>100.07146385</v>
+        <v>100.12212251</v>
       </c>
       <c r="I44" t="n">
-        <v>100.04507051</v>
+        <v>99.61611610999999</v>
       </c>
       <c r="J44" t="n">
-        <v>99.98327274</v>
+        <v>100.67940162</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.99964928999999</v>
+        <v>99.77114535</v>
       </c>
       <c r="C45" t="n">
-        <v>100.0209883</v>
+        <v>101.3757986</v>
       </c>
       <c r="D45" t="n">
-        <v>100.13117612</v>
+        <v>100.17412381</v>
       </c>
       <c r="E45" t="n">
-        <v>99.96327728999999</v>
+        <v>100.12994124</v>
       </c>
       <c r="F45" t="n">
-        <v>100.03649242</v>
+        <v>100.71505336</v>
       </c>
       <c r="G45" t="n">
-        <v>99.82582626999999</v>
+        <v>100.04191481</v>
       </c>
       <c r="H45" t="n">
-        <v>100.02452013</v>
+        <v>100.00127886</v>
       </c>
       <c r="I45" t="n">
-        <v>100.11668466</v>
+        <v>99.71692317999999</v>
       </c>
       <c r="J45" t="n">
-        <v>100.14052566</v>
+        <v>102.22977744</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.28993475</v>
+        <v>99.62715304</v>
       </c>
       <c r="C46" t="n">
-        <v>100.56690895</v>
+        <v>100.85354517</v>
       </c>
       <c r="D46" t="n">
-        <v>100.26952596</v>
+        <v>100.06668504</v>
       </c>
       <c r="E46" t="n">
-        <v>99.95526141000001</v>
+        <v>100.07334128</v>
       </c>
       <c r="F46" t="n">
-        <v>99.88935613</v>
+        <v>100.88107003</v>
       </c>
       <c r="G46" t="n">
-        <v>100.01902577</v>
+        <v>100.14609821</v>
       </c>
       <c r="H46" t="n">
-        <v>99.94283691</v>
+        <v>99.99589447</v>
       </c>
       <c r="I46" t="n">
-        <v>99.85626359</v>
+        <v>100.79836896</v>
       </c>
       <c r="J46" t="n">
-        <v>99.84576272</v>
+        <v>102.59866568</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.05017098</v>
+        <v>100.07136075</v>
       </c>
       <c r="C47" t="n">
-        <v>100.88988856</v>
+        <v>100.07975638</v>
       </c>
       <c r="D47" t="n">
-        <v>100.24730704</v>
+        <v>100.07492473</v>
       </c>
       <c r="E47" t="n">
-        <v>100.0905517</v>
+        <v>99.98970070999999</v>
       </c>
       <c r="F47" t="n">
-        <v>100.40773131</v>
+        <v>100.89322145</v>
       </c>
       <c r="G47" t="n">
-        <v>101.31922889</v>
+        <v>100.12184219</v>
       </c>
       <c r="H47" t="n">
-        <v>100.12212251</v>
+        <v>100.08300133</v>
       </c>
       <c r="I47" t="n">
-        <v>99.61611610999999</v>
+        <v>100.30749622</v>
       </c>
       <c r="J47" t="n">
-        <v>100.67940162</v>
+        <v>102.68061575</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.77114535</v>
+        <v>99.71099753</v>
       </c>
       <c r="C48" t="n">
-        <v>101.3757986</v>
+        <v>99.22805133</v>
       </c>
       <c r="D48" t="n">
-        <v>100.17412381</v>
+        <v>100.07300518</v>
       </c>
       <c r="E48" t="n">
-        <v>100.12994124</v>
+        <v>99.96227309</v>
       </c>
       <c r="F48" t="n">
-        <v>100.71505336</v>
+        <v>100.35813095</v>
       </c>
       <c r="G48" t="n">
-        <v>100.04191481</v>
+        <v>99.27729465</v>
       </c>
       <c r="H48" t="n">
-        <v>100.00127886</v>
+        <v>99.90686857</v>
       </c>
       <c r="I48" t="n">
-        <v>99.71692317999999</v>
+        <v>100.34944757</v>
       </c>
       <c r="J48" t="n">
-        <v>102.22977744</v>
+        <v>101.50227305</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>99.62715304</v>
+        <v>100.1520816</v>
       </c>
       <c r="C49" t="n">
-        <v>100.85354517</v>
+        <v>99.91906007999999</v>
       </c>
       <c r="D49" t="n">
-        <v>100.06668504</v>
+        <v>100.17392481</v>
       </c>
       <c r="E49" t="n">
-        <v>100.07334128</v>
+        <v>100.0862068</v>
       </c>
       <c r="F49" t="n">
-        <v>100.88107003</v>
+        <v>99.99546073</v>
       </c>
       <c r="G49" t="n">
-        <v>100.14609821</v>
+        <v>100.04548346</v>
       </c>
       <c r="H49" t="n">
-        <v>99.99589447</v>
+        <v>100.10864497</v>
       </c>
       <c r="I49" t="n">
-        <v>100.79836896</v>
+        <v>99.86274619</v>
       </c>
       <c r="J49" t="n">
-        <v>102.59866568</v>
+        <v>99.83833955</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>99.8</v>
+        <v>101.43524246</v>
       </c>
       <c r="C50" t="n">
-        <v>98.3</v>
+        <v>101.77327226</v>
       </c>
       <c r="D50" t="n">
-        <v>100.1</v>
+        <v>100.55885459</v>
       </c>
       <c r="E50" t="n">
-        <v>100.1</v>
+        <v>99.97842758</v>
       </c>
       <c r="F50" t="n">
-        <v>99.7</v>
+        <v>101.39674824</v>
       </c>
       <c r="G50" t="n">
-        <v>100.6</v>
+        <v>101.43032657</v>
       </c>
       <c r="H50" t="n">
-        <v>100.1</v>
+        <v>100.22112011</v>
       </c>
       <c r="I50" t="n">
-        <v>100.4</v>
+        <v>99.46951899</v>
       </c>
       <c r="J50" t="n">
-        <v>98.8</v>
+        <v>103.14976113</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>99.7</v>
+        <v>98.53716106</v>
       </c>
       <c r="C51" t="n">
-        <v>99.40000000000001</v>
+        <v>99.79814915</v>
       </c>
       <c r="D51" t="n">
-        <v>100</v>
+        <v>100.1199699</v>
       </c>
       <c r="E51" t="n">
-        <v>100</v>
+        <v>99.89200504999999</v>
       </c>
       <c r="F51" t="n">
-        <v>99.40000000000001</v>
+        <v>100.79142578</v>
       </c>
       <c r="G51" t="n">
-        <v>99.2</v>
+        <v>100.01708607</v>
       </c>
       <c r="H51" t="n">
-        <v>100</v>
+        <v>99.92301972</v>
       </c>
       <c r="I51" t="n">
-        <v>100.3</v>
+        <v>99.73309979</v>
       </c>
       <c r="J51" t="n">
-        <v>98.40000000000001</v>
+        <v>103.04843417</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>100.9</v>
+        <v>97.54020146000001</v>
       </c>
       <c r="C52" t="n">
-        <v>99.59999999999999</v>
+        <v>100.36114785</v>
       </c>
       <c r="D52" t="n">
-        <v>100</v>
+        <v>100.16246892</v>
       </c>
       <c r="E52" t="n">
-        <v>100.1</v>
+        <v>99.72708038</v>
       </c>
       <c r="F52" t="n">
-        <v>100.7</v>
+        <v>98.77465900999999</v>
       </c>
       <c r="G52" t="n">
-        <v>99.90000000000001</v>
+        <v>99.94754424</v>
       </c>
       <c r="H52" t="n">
-        <v>100.1</v>
+        <v>99.87374179</v>
       </c>
       <c r="I52" t="n">
-        <v>100</v>
+        <v>99.85370317</v>
       </c>
       <c r="J52" t="n">
-        <v>102</v>
+        <v>97.28650614999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>101.43524246</v>
+        <v>98.82167534</v>
       </c>
       <c r="C53" t="n">
-        <v>101.77327226</v>
+        <v>99.87364531</v>
       </c>
       <c r="D53" t="n">
-        <v>100.55885459</v>
+        <v>100.17344227</v>
       </c>
       <c r="E53" t="n">
-        <v>99.97842758</v>
+        <v>99.81585174</v>
       </c>
       <c r="F53" t="n">
-        <v>101.39674824</v>
+        <v>99.13562856</v>
       </c>
       <c r="G53" t="n">
-        <v>101.43032657</v>
+        <v>99.80756304000001</v>
       </c>
       <c r="H53" t="n">
-        <v>100.22112011</v>
+        <v>99.90945474</v>
       </c>
       <c r="I53" t="n">
-        <v>99.46951899</v>
+        <v>99.93905875</v>
       </c>
       <c r="J53" t="n">
-        <v>103.14976113</v>
+        <v>97.92978153999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>98.53716106</v>
+        <v>99.8398471</v>
       </c>
       <c r="C54" t="n">
-        <v>99.79814915</v>
+        <v>100.48031265</v>
       </c>
       <c r="D54" t="n">
-        <v>100.1199699</v>
+        <v>100.00485169</v>
       </c>
       <c r="E54" t="n">
-        <v>99.89200504999999</v>
+        <v>99.83196040999999</v>
       </c>
       <c r="F54" t="n">
-        <v>100.79142578</v>
+        <v>99.20915008999999</v>
       </c>
       <c r="G54" t="n">
-        <v>100.01708607</v>
+        <v>100.02581579</v>
       </c>
       <c r="H54" t="n">
-        <v>99.92301972</v>
+        <v>100.01406068</v>
       </c>
       <c r="I54" t="n">
-        <v>99.73309979</v>
+        <v>100.1527584</v>
       </c>
       <c r="J54" t="n">
-        <v>103.04843417</v>
+        <v>97.62715011</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>97.54020146000001</v>
+        <v>99.74692236999999</v>
       </c>
       <c r="C55" t="n">
-        <v>100.36114785</v>
+        <v>100.38615304</v>
       </c>
       <c r="D55" t="n">
-        <v>100.16246892</v>
+        <v>100.00960986</v>
       </c>
       <c r="E55" t="n">
-        <v>99.72708038</v>
+        <v>99.83265532</v>
       </c>
       <c r="F55" t="n">
-        <v>98.77465900999999</v>
+        <v>99.93391647</v>
       </c>
       <c r="G55" t="n">
-        <v>99.94754424</v>
+        <v>99.72675887</v>
       </c>
       <c r="H55" t="n">
-        <v>99.87374179</v>
+        <v>99.87689817</v>
       </c>
       <c r="I55" t="n">
-        <v>99.85370317</v>
+        <v>99.77521629</v>
       </c>
       <c r="J55" t="n">
-        <v>97.28650614999999</v>
+        <v>100.12219612</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>98.82167534</v>
+        <v>100.31161714</v>
       </c>
       <c r="C56" t="n">
-        <v>99.87364531</v>
+        <v>100.84837639</v>
       </c>
       <c r="D56" t="n">
-        <v>100.17344227</v>
+        <v>100.01052023</v>
       </c>
       <c r="E56" t="n">
-        <v>99.81585174</v>
+        <v>99.95405722</v>
       </c>
       <c r="F56" t="n">
-        <v>99.13562856</v>
+        <v>100.61586097</v>
       </c>
       <c r="G56" t="n">
-        <v>99.80756304000001</v>
+        <v>99.75047632</v>
       </c>
       <c r="H56" t="n">
-        <v>99.90945474</v>
+        <v>100.02246197</v>
       </c>
       <c r="I56" t="n">
-        <v>99.93905875</v>
+        <v>99.51653407000001</v>
       </c>
       <c r="J56" t="n">
-        <v>97.92978153999999</v>
+        <v>101.96813927</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>99.8398471</v>
+        <v>100.26393398</v>
       </c>
       <c r="C57" t="n">
-        <v>100.48031265</v>
+        <v>102.37403868</v>
       </c>
       <c r="D57" t="n">
-        <v>100.00485169</v>
+        <v>100.08328273</v>
       </c>
       <c r="E57" t="n">
-        <v>99.83196040999999</v>
+        <v>100.105099</v>
       </c>
       <c r="F57" t="n">
-        <v>99.20915008999999</v>
+        <v>100.40097153</v>
       </c>
       <c r="G57" t="n">
-        <v>100.02581579</v>
+        <v>99.69080906000001</v>
       </c>
       <c r="H57" t="n">
-        <v>100.01406068</v>
+        <v>99.97278337</v>
       </c>
       <c r="I57" t="n">
-        <v>100.1527584</v>
+        <v>99.79579581</v>
       </c>
       <c r="J57" t="n">
-        <v>97.62715011</v>
+        <v>100.99359071</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>99.74692236999999</v>
+        <v>99.93325651000001</v>
       </c>
       <c r="C58" t="n">
-        <v>100.38615304</v>
+        <v>99.10047468</v>
       </c>
       <c r="D58" t="n">
-        <v>100.00960986</v>
+        <v>100.02917742</v>
       </c>
       <c r="E58" t="n">
-        <v>99.83265532</v>
+        <v>100.0412301</v>
       </c>
       <c r="F58" t="n">
-        <v>99.93391647</v>
+        <v>100.23254104</v>
       </c>
       <c r="G58" t="n">
-        <v>99.72675887</v>
+        <v>100.82875498</v>
       </c>
       <c r="H58" t="n">
-        <v>99.87689817</v>
+        <v>99.95568982</v>
       </c>
       <c r="I58" t="n">
-        <v>99.77521629</v>
+        <v>100.85099201</v>
       </c>
       <c r="J58" t="n">
-        <v>100.12219612</v>
+        <v>100.31219585</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>100.31161714</v>
+        <v>99.8</v>
       </c>
       <c r="C59" t="n">
-        <v>100.84837639</v>
+        <v>98.3</v>
       </c>
       <c r="D59" t="n">
-        <v>100.01052023</v>
+        <v>100.1</v>
       </c>
       <c r="E59" t="n">
-        <v>99.95405722</v>
+        <v>100.1</v>
       </c>
       <c r="F59" t="n">
-        <v>100.61586097</v>
+        <v>99.7</v>
       </c>
       <c r="G59" t="n">
-        <v>99.75047632</v>
+        <v>100.6</v>
       </c>
       <c r="H59" t="n">
-        <v>100.02246197</v>
+        <v>100.1</v>
       </c>
       <c r="I59" t="n">
-        <v>99.51653407000001</v>
+        <v>100.4</v>
       </c>
       <c r="J59" t="n">
-        <v>101.96813927</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>100.26393398</v>
+        <v>99.7</v>
       </c>
       <c r="C60" t="n">
-        <v>102.37403868</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>100.08328273</v>
+        <v>100</v>
       </c>
       <c r="E60" t="n">
-        <v>100.105099</v>
+        <v>100</v>
       </c>
       <c r="F60" t="n">
-        <v>100.40097153</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G60" t="n">
-        <v>99.69080906000001</v>
+        <v>99.2</v>
       </c>
       <c r="H60" t="n">
-        <v>99.97278337</v>
+        <v>100</v>
       </c>
       <c r="I60" t="n">
-        <v>99.79579581</v>
+        <v>100.3</v>
       </c>
       <c r="J60" t="n">
-        <v>100.99359071</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>99.93325651000001</v>
+        <v>100.9</v>
       </c>
       <c r="C61" t="n">
-        <v>99.10047468</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>100.02917742</v>
+        <v>100</v>
       </c>
       <c r="E61" t="n">
-        <v>100.0412301</v>
+        <v>100.1</v>
       </c>
       <c r="F61" t="n">
-        <v>100.23254104</v>
+        <v>100.7</v>
       </c>
       <c r="G61" t="n">
-        <v>100.82875498</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H61" t="n">
-        <v>99.95568982</v>
+        <v>100.1</v>
       </c>
       <c r="I61" t="n">
-        <v>100.85099201</v>
+        <v>100</v>
       </c>
       <c r="J61" t="n">
-        <v>100.31219585</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B62" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="C62" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F62" t="n">
         <v>101</v>
       </c>
-      <c r="C62" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="D62" t="n">
+      <c r="G62" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="H62" t="n">
         <v>100.2</v>
       </c>
-      <c r="E62" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="F62" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="G62" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="H62" t="n">
-        <v>100.3</v>
-      </c>
       <c r="I62" t="n">
-        <v>100.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J62" t="n">
-        <v>101.2</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100.3</v>
+        <v>101.1</v>
       </c>
       <c r="C63" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="D63" t="n">
         <v>100</v>
       </c>
       <c r="E63" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="F63" t="n">
-        <v>100.4</v>
+        <v>100.6</v>
       </c>
       <c r="G63" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="H63" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I63" t="n">
         <v>99.5</v>
       </c>
-      <c r="H63" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="I63" t="n">
-        <v>100.3</v>
-      </c>
       <c r="J63" t="n">
-        <v>101.6</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>98.7</v>
+        <v>101.3</v>
       </c>
       <c r="C64" t="n">
-        <v>99.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="D64" t="n">
         <v>100</v>
       </c>
       <c r="E64" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="F64" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G64" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="H64" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="F64" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="G64" t="n">
-        <v>100</v>
-      </c>
-      <c r="H64" t="n">
-        <v>100.3</v>
-      </c>
       <c r="I64" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="J64" t="n">
-        <v>99.7</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>100.9</v>
+        <v>100.4</v>
       </c>
       <c r="C65" t="n">
-        <v>100.5</v>
+        <v>100.4</v>
       </c>
       <c r="D65" t="n">
         <v>100.1</v>
@@ -2641,32 +2641,32 @@
         <v>100.1</v>
       </c>
       <c r="F65" t="n">
-        <v>101</v>
+        <v>99.7</v>
       </c>
       <c r="G65" t="n">
-        <v>100.4</v>
+        <v>100.7</v>
       </c>
       <c r="H65" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="I65" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="J65" t="n">
-        <v>102.8</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>101.1</v>
+        <v>100.4</v>
       </c>
       <c r="C66" t="n">
-        <v>99.7</v>
+        <v>100.6</v>
       </c>
       <c r="D66" t="n">
         <v>100</v>
@@ -2675,100 +2675,100 @@
         <v>100.1</v>
       </c>
       <c r="F66" t="n">
-        <v>100.6</v>
+        <v>99.8</v>
       </c>
       <c r="G66" t="n">
-        <v>100.8</v>
+        <v>100.3</v>
       </c>
       <c r="H66" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I66" t="n">
-        <v>99.5</v>
+        <v>100.3</v>
       </c>
       <c r="J66" t="n">
-        <v>101.2</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>101.3</v>
+        <v>100.1</v>
       </c>
       <c r="C67" t="n">
-        <v>99.2</v>
+        <v>100.1</v>
       </c>
       <c r="D67" t="n">
         <v>100</v>
       </c>
       <c r="E67" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="F67" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="H67" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="I67" t="n">
-        <v>100.4</v>
+        <v>99.8</v>
       </c>
       <c r="J67" t="n">
-        <v>97.59999999999999</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>100.4</v>
+        <v>101.5</v>
       </c>
       <c r="C68" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="D68" t="n">
         <v>100.1</v>
       </c>
       <c r="E68" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="F68" t="n">
-        <v>99.7</v>
+        <v>100.3</v>
       </c>
       <c r="G68" t="n">
-        <v>100.7</v>
+        <v>101</v>
       </c>
       <c r="H68" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="I68" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J68" t="n">
-        <v>98.5</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>100.4</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>100.6</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D69" t="n">
         <v>100</v>
@@ -2777,155 +2777,155 @@
         <v>100.1</v>
       </c>
       <c r="F69" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="G69" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
       <c r="H69" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="I69" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="I69" t="n">
-        <v>100.3</v>
-      </c>
       <c r="J69" t="n">
-        <v>99</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="C70" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="D70" t="n">
         <v>100</v>
       </c>
       <c r="E70" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="F70" t="n">
+        <v>100</v>
+      </c>
+      <c r="G70" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="H70" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I70" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="J70" t="n">
         <v>99.59999999999999</v>
-      </c>
-      <c r="G70" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="H70" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="I70" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="J70" t="n">
-        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>101.5</v>
+        <v>101</v>
       </c>
       <c r="C71" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D71" t="n">
         <v>100.2</v>
       </c>
-      <c r="D71" t="n">
-        <v>100.1</v>
-      </c>
       <c r="E71" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="F71" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="G71" t="n">
         <v>100.2</v>
       </c>
-      <c r="F71" t="n">
+      <c r="H71" t="n">
         <v>100.3</v>
       </c>
-      <c r="G71" t="n">
-        <v>101</v>
-      </c>
-      <c r="H71" t="n">
-        <v>100.4</v>
-      </c>
       <c r="I71" t="n">
-        <v>99.59999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="J71" t="n">
-        <v>99.8</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>99.40000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="C72" t="n">
-        <v>99.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="D72" t="n">
         <v>100</v>
       </c>
       <c r="E72" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="F72" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="G72" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="H72" t="n">
-        <v>100.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I72" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="J72" t="n">
-        <v>100.5</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>99.8</v>
+        <v>98.7</v>
       </c>
       <c r="C73" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D73" t="n">
         <v>100</v>
       </c>
       <c r="E73" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F73" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="G73" t="n">
         <v>100</v>
       </c>
-      <c r="G73" t="n">
-        <v>100.7</v>
-      </c>
       <c r="H73" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="I73" t="n">
-        <v>100.8</v>
+        <v>100.1</v>
       </c>
       <c r="J73" t="n">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
     </row>
   </sheetData>

--- a/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/全国居民消费价格分类指数(上月=100)(2016-).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上月=100)/全国居民消费价格分类指数(上月=100)(2016-).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,2292 +483,2292 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2016-01</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.04260852</v>
+        <v>99.94347338</v>
       </c>
       <c r="C2" t="n">
-        <v>100.69065687</v>
+        <v>99.40970896</v>
       </c>
       <c r="D2" t="n">
-        <v>100.27898914</v>
+        <v>100.6072369</v>
       </c>
       <c r="E2" t="n">
-        <v>100.08001736</v>
+        <v>100.156455699999</v>
       </c>
       <c r="F2" t="n">
-        <v>100.53305958</v>
+        <v>99.87992688999989</v>
       </c>
       <c r="G2" t="n">
-        <v>100.64648726</v>
+        <v>99.67884447</v>
       </c>
       <c r="H2" t="n">
-        <v>100.14562496</v>
+        <v>100.0665757</v>
       </c>
       <c r="I2" t="n">
-        <v>99.62941354</v>
+        <v>100.606916999999</v>
       </c>
       <c r="J2" t="n">
-        <v>101.38837987</v>
+        <v>99.3624937099999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2016-02</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.26168214</v>
+        <v>100.0058229</v>
       </c>
       <c r="C3" t="n">
-        <v>101.61754957</v>
+        <v>100.0135057</v>
       </c>
       <c r="D3" t="n">
-        <v>100.11991042</v>
+        <v>100.4082843</v>
       </c>
       <c r="E3" t="n">
-        <v>100.1330834</v>
+        <v>100.2345824</v>
       </c>
       <c r="F3" t="n">
-        <v>101.56234821</v>
+        <v>100.144379</v>
       </c>
       <c r="G3" t="n">
-        <v>100.57630938</v>
+        <v>99.66793328999999</v>
       </c>
       <c r="H3" t="n">
-        <v>100.12425892</v>
+        <v>100.0317495</v>
       </c>
       <c r="I3" t="n">
-        <v>99.6454359</v>
+        <v>100.5919532</v>
       </c>
       <c r="J3" t="n">
-        <v>104.63979827</v>
+        <v>100.1655698</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2016-03</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.30851297</v>
+        <v>100.5318027</v>
       </c>
       <c r="C4" t="n">
-        <v>100.25310861</v>
+        <v>99.70132674</v>
       </c>
       <c r="D4" t="n">
-        <v>100.27879241</v>
+        <v>100.4940917</v>
       </c>
       <c r="E4" t="n">
-        <v>100.33833449</v>
+        <v>100.1686078</v>
       </c>
       <c r="F4" t="n">
-        <v>99.56946232</v>
+        <v>100.2240058</v>
       </c>
       <c r="G4" t="n">
-        <v>99.2788348</v>
+        <v>100.0646732</v>
       </c>
       <c r="H4" t="n">
-        <v>99.83422754</v>
+        <v>100.1612828</v>
       </c>
       <c r="I4" t="n">
-        <v>100.49405722</v>
+        <v>99.86889927999999</v>
       </c>
       <c r="J4" t="n">
-        <v>98.7282239</v>
+        <v>100.2924024</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2016-04</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.05043825</v>
+        <v>100.04260852</v>
       </c>
       <c r="C5" t="n">
-        <v>100.14599103</v>
+        <v>100.69065687</v>
       </c>
       <c r="D5" t="n">
-        <v>100.34774833</v>
+        <v>100.27898914</v>
       </c>
       <c r="E5" t="n">
-        <v>100.1624662</v>
+        <v>100.08001736</v>
       </c>
       <c r="F5" t="n">
-        <v>99.82058635</v>
+        <v>100.53305958</v>
       </c>
       <c r="G5" t="n">
-        <v>100.11569664</v>
+        <v>100.64648726</v>
       </c>
       <c r="H5" t="n">
-        <v>100.05145074</v>
+        <v>100.14562496</v>
       </c>
       <c r="I5" t="n">
-        <v>100.13725009</v>
+        <v>99.62941354</v>
       </c>
       <c r="J5" t="n">
-        <v>99.09671754999999</v>
+        <v>101.38837987</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2016-05</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.34785958</v>
+        <v>100.26168214</v>
       </c>
       <c r="C6" t="n">
-        <v>100.31581915</v>
+        <v>101.61754957</v>
       </c>
       <c r="D6" t="n">
-        <v>100.22609375</v>
+        <v>100.11991042</v>
       </c>
       <c r="E6" t="n">
-        <v>100.06465004</v>
+        <v>100.1330834</v>
       </c>
       <c r="F6" t="n">
-        <v>99.54414484</v>
+        <v>101.56234821</v>
       </c>
       <c r="G6" t="n">
-        <v>99.90390698</v>
+        <v>100.57630938</v>
       </c>
       <c r="H6" t="n">
-        <v>100.02241282</v>
+        <v>100.12425892</v>
       </c>
       <c r="I6" t="n">
-        <v>100.1265424</v>
+        <v>99.6454359</v>
       </c>
       <c r="J6" t="n">
-        <v>98.23925788</v>
+        <v>104.63979827</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2016-06</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.65929895</v>
+        <v>99.30851297</v>
       </c>
       <c r="C7" t="n">
-        <v>100.13763503</v>
+        <v>100.25310861</v>
       </c>
       <c r="D7" t="n">
-        <v>100.45662169</v>
+        <v>100.27879241</v>
       </c>
       <c r="E7" t="n">
-        <v>100.09827142</v>
+        <v>100.33833449</v>
       </c>
       <c r="F7" t="n">
-        <v>99.86876515</v>
+        <v>99.56946232</v>
       </c>
       <c r="G7" t="n">
-        <v>100.31930482</v>
+        <v>99.2788348</v>
       </c>
       <c r="H7" t="n">
-        <v>100.01209527</v>
+        <v>99.83422754</v>
       </c>
       <c r="I7" t="n">
-        <v>99.68612245</v>
+        <v>100.49405722</v>
       </c>
       <c r="J7" t="n">
-        <v>99.06182769999999</v>
+        <v>98.7282239</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2016-07</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.09722022</v>
+        <v>100.05043825</v>
       </c>
       <c r="C8" t="n">
-        <v>101.35808474</v>
+        <v>100.14599103</v>
       </c>
       <c r="D8" t="n">
-        <v>100.71928573</v>
+        <v>100.34774833</v>
       </c>
       <c r="E8" t="n">
-        <v>100.14525573</v>
+        <v>100.1624662</v>
       </c>
       <c r="F8" t="n">
-        <v>100.19454943</v>
+        <v>99.82058635</v>
       </c>
       <c r="G8" t="n">
-        <v>101.01503979</v>
+        <v>100.11569664</v>
       </c>
       <c r="H8" t="n">
-        <v>100.02925441</v>
+        <v>100.05145074</v>
       </c>
       <c r="I8" t="n">
-        <v>99.57980134</v>
+        <v>100.13725009</v>
       </c>
       <c r="J8" t="n">
-        <v>99.89618238</v>
+        <v>99.09671754999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2016-08</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>99.36863912</v>
+        <v>100.34785958</v>
       </c>
       <c r="C9" t="n">
-        <v>100.1269274</v>
+        <v>100.31581915</v>
       </c>
       <c r="D9" t="n">
-        <v>100.3302374</v>
+        <v>100.22609375</v>
       </c>
       <c r="E9" t="n">
-        <v>100.2017276</v>
+        <v>100.06465004</v>
       </c>
       <c r="F9" t="n">
-        <v>100.0600045</v>
+        <v>99.54414484</v>
       </c>
       <c r="G9" t="n">
-        <v>99.86115035</v>
+        <v>99.90390698</v>
       </c>
       <c r="H9" t="n">
-        <v>99.97118373000001</v>
+        <v>100.02241282</v>
       </c>
       <c r="I9" t="n">
-        <v>99.92780820999999</v>
+        <v>100.1265424</v>
       </c>
       <c r="J9" t="n">
-        <v>100.2901011</v>
+        <v>98.23925788</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016-09</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.3236432</v>
+        <v>100.65929895</v>
       </c>
       <c r="C10" t="n">
-        <v>100.1782208</v>
+        <v>100.13763503</v>
       </c>
       <c r="D10" t="n">
-        <v>100.233985799999</v>
+        <v>100.45662169</v>
       </c>
       <c r="E10" t="n">
-        <v>100.266422399999</v>
+        <v>100.09827142</v>
       </c>
       <c r="F10" t="n">
-        <v>100.672646799999</v>
+        <v>99.86876515</v>
       </c>
       <c r="G10" t="n">
-        <v>101.1849629</v>
+        <v>100.31930482</v>
       </c>
       <c r="H10" t="n">
-        <v>99.96119903</v>
+        <v>100.01209527</v>
       </c>
       <c r="I10" t="n">
-        <v>100.8401673</v>
+        <v>99.68612245</v>
       </c>
       <c r="J10" t="n">
-        <v>101.172219999999</v>
+        <v>99.06182769999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.94347338</v>
+        <v>100.09722022</v>
       </c>
       <c r="C11" t="n">
-        <v>99.40970896</v>
+        <v>101.35808474</v>
       </c>
       <c r="D11" t="n">
-        <v>100.6072369</v>
+        <v>100.71928573</v>
       </c>
       <c r="E11" t="n">
-        <v>100.156455699999</v>
+        <v>100.14525573</v>
       </c>
       <c r="F11" t="n">
-        <v>99.87992688999989</v>
+        <v>100.19454943</v>
       </c>
       <c r="G11" t="n">
-        <v>99.67884447</v>
+        <v>101.01503979</v>
       </c>
       <c r="H11" t="n">
-        <v>100.0665757</v>
+        <v>100.02925441</v>
       </c>
       <c r="I11" t="n">
-        <v>100.606916999999</v>
+        <v>99.57980134</v>
       </c>
       <c r="J11" t="n">
-        <v>99.3624937099999</v>
+        <v>99.89618238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100.0058229</v>
+        <v>99.36863912</v>
       </c>
       <c r="C12" t="n">
-        <v>100.0135057</v>
+        <v>100.1269274</v>
       </c>
       <c r="D12" t="n">
-        <v>100.4082843</v>
+        <v>100.3302374</v>
       </c>
       <c r="E12" t="n">
-        <v>100.2345824</v>
+        <v>100.2017276</v>
       </c>
       <c r="F12" t="n">
-        <v>100.144379</v>
+        <v>100.0600045</v>
       </c>
       <c r="G12" t="n">
-        <v>99.66793328999999</v>
+        <v>99.86115035</v>
       </c>
       <c r="H12" t="n">
-        <v>100.0317495</v>
+        <v>99.97118373000001</v>
       </c>
       <c r="I12" t="n">
-        <v>100.5919532</v>
+        <v>99.92780820999999</v>
       </c>
       <c r="J12" t="n">
-        <v>100.1655698</v>
+        <v>100.2901011</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.5318027</v>
+        <v>100.3236432</v>
       </c>
       <c r="C13" t="n">
-        <v>99.70132674</v>
+        <v>100.1782208</v>
       </c>
       <c r="D13" t="n">
-        <v>100.4940917</v>
+        <v>100.233985799999</v>
       </c>
       <c r="E13" t="n">
-        <v>100.1686078</v>
+        <v>100.266422399999</v>
       </c>
       <c r="F13" t="n">
-        <v>100.2240058</v>
+        <v>100.672646799999</v>
       </c>
       <c r="G13" t="n">
-        <v>100.0646732</v>
+        <v>101.1849629</v>
       </c>
       <c r="H13" t="n">
-        <v>100.1612828</v>
+        <v>99.96119903</v>
       </c>
       <c r="I13" t="n">
-        <v>99.86889927999999</v>
+        <v>100.8401673</v>
       </c>
       <c r="J13" t="n">
-        <v>100.2924024</v>
+        <v>101.172219999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2017-01</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.4422926</v>
+        <v>100.2449328</v>
       </c>
       <c r="C14" t="n">
-        <v>101.4582096</v>
+        <v>99.77129367000001</v>
       </c>
       <c r="D14" t="n">
-        <v>100.6392304</v>
+        <v>100.2445526</v>
       </c>
       <c r="E14" t="n">
-        <v>100.2704383</v>
+        <v>100.2354649</v>
       </c>
       <c r="F14" t="n">
-        <v>100.9984247</v>
+        <v>100.1122281</v>
       </c>
       <c r="G14" t="n">
-        <v>101.6475941</v>
+        <v>99.65043980999999</v>
       </c>
       <c r="H14" t="n">
-        <v>100.3323105</v>
+        <v>100.1761807</v>
       </c>
       <c r="I14" t="n">
-        <v>99.55339859999999</v>
+        <v>100.5415167</v>
       </c>
       <c r="J14" t="n">
-        <v>101.663984</v>
+        <v>100.0210425</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2017-02</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.58873438000001</v>
+        <v>100.4973804</v>
       </c>
       <c r="C15" t="n">
-        <v>99.98996004</v>
+        <v>99.9634269</v>
       </c>
       <c r="D15" t="n">
-        <v>100.26318038</v>
+        <v>100.1849045</v>
       </c>
       <c r="E15" t="n">
-        <v>100.4081267</v>
+        <v>100.2039295</v>
       </c>
       <c r="F15" t="n">
-        <v>99.83211425</v>
+        <v>100.0128196</v>
       </c>
       <c r="G15" t="n">
-        <v>99.05610969</v>
+        <v>99.46247624999999</v>
       </c>
       <c r="H15" t="n">
-        <v>100.00561312</v>
+        <v>100.088724</v>
       </c>
       <c r="I15" t="n">
-        <v>99.7431612</v>
+        <v>100.5201878</v>
       </c>
       <c r="J15" t="n">
-        <v>99.68068355</v>
+        <v>99.69850642999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017-03</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.63764854999999</v>
+        <v>100.3656583</v>
       </c>
       <c r="C16" t="n">
-        <v>100.0129051</v>
+        <v>99.88152244</v>
       </c>
       <c r="D16" t="n">
-        <v>100.4836886</v>
+        <v>100.1470725</v>
       </c>
       <c r="E16" t="n">
-        <v>100.2380448</v>
+        <v>100.1557428</v>
       </c>
       <c r="F16" t="n">
-        <v>99.68318746999999</v>
+        <v>100.3359776</v>
       </c>
       <c r="G16" t="n">
-        <v>99.83827963</v>
+        <v>100.0877807</v>
       </c>
       <c r="H16" t="n">
-        <v>100.0233155</v>
+        <v>100.2080217</v>
       </c>
       <c r="I16" t="n">
-        <v>100.5942341</v>
+        <v>99.96718258</v>
       </c>
       <c r="J16" t="n">
-        <v>98.69313812</v>
+        <v>100.7833704</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2017-04</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>99.83929774000001</v>
+        <v>101.4422926</v>
       </c>
       <c r="C17" t="n">
-        <v>100.6903188</v>
+        <v>101.4582096</v>
       </c>
       <c r="D17" t="n">
-        <v>100.6931511</v>
+        <v>100.6392304</v>
       </c>
       <c r="E17" t="n">
-        <v>100.1416315</v>
+        <v>100.2704383</v>
       </c>
       <c r="F17" t="n">
-        <v>100.0665377</v>
+        <v>100.9984247</v>
       </c>
       <c r="G17" t="n">
-        <v>100.353329</v>
+        <v>101.6475941</v>
       </c>
       <c r="H17" t="n">
-        <v>100.2277874</v>
+        <v>100.3323105</v>
       </c>
       <c r="I17" t="n">
-        <v>100.1947571</v>
+        <v>99.55339859999999</v>
       </c>
       <c r="J17" t="n">
-        <v>99.6919329</v>
+        <v>101.663984</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2017-05</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.69450037</v>
+        <v>99.58873438000001</v>
       </c>
       <c r="C18" t="n">
-        <v>99.77058522999999</v>
+        <v>99.98996004</v>
       </c>
       <c r="D18" t="n">
-        <v>100.3734001</v>
+        <v>100.26318038</v>
       </c>
       <c r="E18" t="n">
-        <v>100.105543</v>
+        <v>100.4081267</v>
       </c>
       <c r="F18" t="n">
-        <v>99.88978174</v>
+        <v>99.83211425</v>
       </c>
       <c r="G18" t="n">
-        <v>99.87928737</v>
+        <v>99.05610969</v>
       </c>
       <c r="H18" t="n">
-        <v>100.1806069</v>
+        <v>100.00561312</v>
       </c>
       <c r="I18" t="n">
-        <v>100.1460531</v>
+        <v>99.7431612</v>
       </c>
       <c r="J18" t="n">
-        <v>99.56799545</v>
+        <v>99.68068355</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2017-06</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.69349011</v>
+        <v>99.63764854999999</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0568114</v>
+        <v>100.0129051</v>
       </c>
       <c r="D19" t="n">
-        <v>100.3200609</v>
+        <v>100.4836886</v>
       </c>
       <c r="E19" t="n">
-        <v>100.1545769</v>
+        <v>100.2380448</v>
       </c>
       <c r="F19" t="n">
-        <v>99.84786214</v>
+        <v>99.68318746999999</v>
       </c>
       <c r="G19" t="n">
-        <v>100.2667512</v>
+        <v>99.83827963</v>
       </c>
       <c r="H19" t="n">
-        <v>100.0810331</v>
+        <v>100.0233155</v>
       </c>
       <c r="I19" t="n">
-        <v>99.76463931000001</v>
+        <v>100.5942341</v>
       </c>
       <c r="J19" t="n">
-        <v>99.3457372</v>
+        <v>98.69313812</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2017-07</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99.71228193</v>
+        <v>99.83929774000001</v>
       </c>
       <c r="C20" t="n">
-        <v>99.91584954</v>
+        <v>100.6903188</v>
       </c>
       <c r="D20" t="n">
-        <v>100.5174</v>
+        <v>100.6931511</v>
       </c>
       <c r="E20" t="n">
-        <v>100.1224274</v>
+        <v>100.1416315</v>
       </c>
       <c r="F20" t="n">
-        <v>100.1066159</v>
+        <v>100.0665377</v>
       </c>
       <c r="G20" t="n">
-        <v>100.9840642</v>
+        <v>100.353329</v>
       </c>
       <c r="H20" t="n">
-        <v>100.0892806</v>
+        <v>100.2277874</v>
       </c>
       <c r="I20" t="n">
-        <v>99.57144303</v>
+        <v>100.1947571</v>
       </c>
       <c r="J20" t="n">
-        <v>99.96362565</v>
+        <v>99.6919329</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2017-08</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>100.3213519</v>
+        <v>99.69450037</v>
       </c>
       <c r="C21" t="n">
-        <v>100.1764416</v>
+        <v>99.77058522999999</v>
       </c>
       <c r="D21" t="n">
-        <v>100.7438293</v>
+        <v>100.3734001</v>
       </c>
       <c r="E21" t="n">
-        <v>100.3767072</v>
+        <v>100.105543</v>
       </c>
       <c r="F21" t="n">
-        <v>100.4156853</v>
+        <v>99.88978174</v>
       </c>
       <c r="G21" t="n">
-        <v>99.89953687000001</v>
+        <v>99.87928737</v>
       </c>
       <c r="H21" t="n">
-        <v>100.086433</v>
+        <v>100.1806069</v>
       </c>
       <c r="I21" t="n">
-        <v>99.7866995</v>
+        <v>100.1460531</v>
       </c>
       <c r="J21" t="n">
-        <v>100.860336</v>
+        <v>99.56799545</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2017-09</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100.1310424</v>
+        <v>99.69349011</v>
       </c>
       <c r="C22" t="n">
-        <v>100.2246433</v>
+        <v>100.0568114</v>
       </c>
       <c r="D22" t="n">
-        <v>101.7910192</v>
+        <v>100.3200609</v>
       </c>
       <c r="E22" t="n">
-        <v>100.3415556</v>
+        <v>100.1545769</v>
       </c>
       <c r="F22" t="n">
-        <v>100.5388975</v>
+        <v>99.84786214</v>
       </c>
       <c r="G22" t="n">
-        <v>100.9481593</v>
+        <v>100.2667512</v>
       </c>
       <c r="H22" t="n">
-        <v>100.0738357</v>
+        <v>100.0810331</v>
       </c>
       <c r="I22" t="n">
-        <v>100.8779037</v>
+        <v>99.76463931000001</v>
       </c>
       <c r="J22" t="n">
-        <v>100.3724364</v>
+        <v>99.3457372</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>100.2449328</v>
+        <v>99.71228193</v>
       </c>
       <c r="C23" t="n">
-        <v>99.77129367000001</v>
+        <v>99.91584954</v>
       </c>
       <c r="D23" t="n">
-        <v>100.2445526</v>
+        <v>100.5174</v>
       </c>
       <c r="E23" t="n">
-        <v>100.2354649</v>
+        <v>100.1224274</v>
       </c>
       <c r="F23" t="n">
-        <v>100.1122281</v>
+        <v>100.1066159</v>
       </c>
       <c r="G23" t="n">
-        <v>99.65043980999999</v>
+        <v>100.9840642</v>
       </c>
       <c r="H23" t="n">
-        <v>100.1761807</v>
+        <v>100.0892806</v>
       </c>
       <c r="I23" t="n">
-        <v>100.5415167</v>
+        <v>99.57144303</v>
       </c>
       <c r="J23" t="n">
-        <v>100.0210425</v>
+        <v>99.96362565</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>100.4973804</v>
+        <v>100.3213519</v>
       </c>
       <c r="C24" t="n">
-        <v>99.9634269</v>
+        <v>100.1764416</v>
       </c>
       <c r="D24" t="n">
-        <v>100.1849045</v>
+        <v>100.7438293</v>
       </c>
       <c r="E24" t="n">
-        <v>100.2039295</v>
+        <v>100.3767072</v>
       </c>
       <c r="F24" t="n">
-        <v>100.0128196</v>
+        <v>100.4156853</v>
       </c>
       <c r="G24" t="n">
-        <v>99.46247624999999</v>
+        <v>99.89953687000001</v>
       </c>
       <c r="H24" t="n">
-        <v>100.088724</v>
+        <v>100.086433</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5201878</v>
+        <v>99.7866995</v>
       </c>
       <c r="J24" t="n">
-        <v>99.69850642999999</v>
+        <v>100.860336</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>100.3656583</v>
+        <v>100.1310424</v>
       </c>
       <c r="C25" t="n">
-        <v>99.88152244</v>
+        <v>100.2246433</v>
       </c>
       <c r="D25" t="n">
-        <v>100.1470725</v>
+        <v>101.7910192</v>
       </c>
       <c r="E25" t="n">
-        <v>100.1557428</v>
+        <v>100.3415556</v>
       </c>
       <c r="F25" t="n">
-        <v>100.3359776</v>
+        <v>100.5388975</v>
       </c>
       <c r="G25" t="n">
-        <v>100.0877807</v>
+        <v>100.9481593</v>
       </c>
       <c r="H25" t="n">
-        <v>100.2080217</v>
+        <v>100.0738357</v>
       </c>
       <c r="I25" t="n">
-        <v>99.96718258</v>
+        <v>100.8779037</v>
       </c>
       <c r="J25" t="n">
-        <v>100.7833704</v>
+        <v>100.3724364</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2018-01</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.4464078</v>
+        <v>100.6489413</v>
       </c>
       <c r="C26" t="n">
-        <v>100.7531258</v>
+        <v>100.29693091</v>
       </c>
       <c r="D26" t="n">
-        <v>100.2447392</v>
+        <v>100.16778514</v>
       </c>
       <c r="E26" t="n">
-        <v>100.145244</v>
+        <v>100.1963765</v>
       </c>
       <c r="F26" t="n">
-        <v>100.621346</v>
+        <v>100.18135545</v>
       </c>
       <c r="G26" t="n">
-        <v>100.493597</v>
+        <v>99.96230648</v>
       </c>
       <c r="H26" t="n">
-        <v>100.2743404</v>
+        <v>100.09684695</v>
       </c>
       <c r="I26" t="n">
-        <v>99.65343125</v>
+        <v>100.7731348</v>
       </c>
       <c r="J26" t="n">
-        <v>101.5181078</v>
+        <v>99.92169908</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2018-02</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.9384706</v>
+        <v>98.96992363</v>
       </c>
       <c r="C27" t="n">
-        <v>100.4408175</v>
+        <v>100.18344601</v>
       </c>
       <c r="D27" t="n">
-        <v>100.1355227</v>
+        <v>100.17482467</v>
       </c>
       <c r="E27" t="n">
-        <v>99.99925103</v>
+        <v>100.04880071</v>
       </c>
       <c r="F27" t="n">
-        <v>101.2448861</v>
+        <v>99.65379280000001</v>
       </c>
       <c r="G27" t="n">
-        <v>101.7952551</v>
+        <v>99.44428195</v>
       </c>
       <c r="H27" t="n">
-        <v>100.3056179</v>
+        <v>100.0538091</v>
       </c>
       <c r="I27" t="n">
-        <v>99.44934759</v>
+        <v>100.450762</v>
       </c>
       <c r="J27" t="n">
-        <v>103.1156164</v>
+        <v>99.22757025</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2018-03</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.46154369999999</v>
+        <v>98.10543853</v>
       </c>
       <c r="C28" t="n">
-        <v>99.54532958</v>
+        <v>100.0245149</v>
       </c>
       <c r="D28" t="n">
-        <v>100.2088454</v>
+        <v>100.12403524</v>
       </c>
       <c r="E28" t="n">
-        <v>100.2398749</v>
+        <v>100.0007414</v>
       </c>
       <c r="F28" t="n">
-        <v>98.86247096</v>
+        <v>100.02729293</v>
       </c>
       <c r="G28" t="n">
-        <v>98.3588993</v>
+        <v>99.97153056000001</v>
       </c>
       <c r="H28" t="n">
-        <v>99.78564622</v>
+        <v>100.17765397</v>
       </c>
       <c r="I28" t="n">
-        <v>100.5995895</v>
+        <v>100.13142198</v>
       </c>
       <c r="J28" t="n">
-        <v>97.18381737</v>
+        <v>100.75495248</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2018-04</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100.6</v>
+        <v>100.4464078</v>
       </c>
       <c r="C29" t="n">
-        <v>100.4</v>
+        <v>100.7531258</v>
       </c>
       <c r="D29" t="n">
-        <v>100.2</v>
+        <v>100.2447392</v>
       </c>
       <c r="E29" t="n">
-        <v>100.1</v>
+        <v>100.145244</v>
       </c>
       <c r="F29" t="n">
-        <v>99.8</v>
+        <v>100.621346</v>
       </c>
       <c r="G29" t="n">
-        <v>100.2</v>
+        <v>100.493597</v>
       </c>
       <c r="H29" t="n">
-        <v>100.2</v>
+        <v>100.2743404</v>
       </c>
       <c r="I29" t="n">
-        <v>100.2</v>
+        <v>99.65343125</v>
       </c>
       <c r="J29" t="n">
-        <v>98.8</v>
+        <v>101.5181078</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2018-05</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100.4</v>
+        <v>100.9384706</v>
       </c>
       <c r="C30" t="n">
-        <v>99.8</v>
+        <v>100.4408175</v>
       </c>
       <c r="D30" t="n">
-        <v>100.2</v>
+        <v>100.1355227</v>
       </c>
       <c r="E30" t="n">
-        <v>100.1</v>
+        <v>99.99925103</v>
       </c>
       <c r="F30" t="n">
-        <v>99.8</v>
+        <v>101.2448861</v>
       </c>
       <c r="G30" t="n">
-        <v>99.8</v>
+        <v>101.7952551</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1</v>
+        <v>100.3056179</v>
       </c>
       <c r="I30" t="n">
-        <v>100.2</v>
+        <v>99.44934759</v>
       </c>
       <c r="J30" t="n">
-        <v>99.2</v>
+        <v>103.1156164</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2018-06</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.28612253</v>
+        <v>98.46154369999999</v>
       </c>
       <c r="C31" t="n">
-        <v>99.97640579999999</v>
+        <v>99.54532958</v>
       </c>
       <c r="D31" t="n">
-        <v>100.19319766</v>
+        <v>100.2088454</v>
       </c>
       <c r="E31" t="n">
-        <v>100.17704237</v>
+        <v>100.2398749</v>
       </c>
       <c r="F31" t="n">
-        <v>99.94906442</v>
+        <v>98.86247096</v>
       </c>
       <c r="G31" t="n">
-        <v>100.20483327</v>
+        <v>98.3588993</v>
       </c>
       <c r="H31" t="n">
-        <v>100.11150182</v>
+        <v>99.78564622</v>
       </c>
       <c r="I31" t="n">
-        <v>99.78271224</v>
+        <v>100.5995895</v>
       </c>
       <c r="J31" t="n">
-        <v>99.48034646000001</v>
+        <v>97.18381737</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2018-07</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>100.30334551</v>
+        <v>100.6</v>
       </c>
       <c r="C32" t="n">
-        <v>100.249476</v>
+        <v>100.4</v>
       </c>
       <c r="D32" t="n">
-        <v>100.21710111</v>
+        <v>100.2</v>
       </c>
       <c r="E32" t="n">
-        <v>100.2287194</v>
+        <v>100.1</v>
       </c>
       <c r="F32" t="n">
-        <v>100.30887409</v>
+        <v>99.8</v>
       </c>
       <c r="G32" t="n">
-        <v>101.4627255</v>
+        <v>100.2</v>
       </c>
       <c r="H32" t="n">
-        <v>100.11932745</v>
+        <v>100.2</v>
       </c>
       <c r="I32" t="n">
-        <v>99.6396336</v>
+        <v>100.2</v>
       </c>
       <c r="J32" t="n">
-        <v>100.16607356</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2018-08</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>99.97889271</v>
+        <v>100.4</v>
       </c>
       <c r="C33" t="n">
-        <v>100.11959021</v>
+        <v>99.8</v>
       </c>
       <c r="D33" t="n">
-        <v>100.39696027</v>
+        <v>100.2</v>
       </c>
       <c r="E33" t="n">
-        <v>100.5368676</v>
+        <v>100.1</v>
       </c>
       <c r="F33" t="n">
-        <v>100.65548301</v>
+        <v>99.8</v>
       </c>
       <c r="G33" t="n">
-        <v>100.16880296</v>
+        <v>99.8</v>
       </c>
       <c r="H33" t="n">
-        <v>100.09626397</v>
+        <v>100.1</v>
       </c>
       <c r="I33" t="n">
-        <v>99.90738908</v>
+        <v>100.2</v>
       </c>
       <c r="J33" t="n">
-        <v>101.66979556</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2018-09</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.25669433</v>
+        <v>100.28612253</v>
       </c>
       <c r="C34" t="n">
-        <v>99.78757658000001</v>
+        <v>99.97640579999999</v>
       </c>
       <c r="D34" t="n">
-        <v>100.199913</v>
+        <v>100.19319766</v>
       </c>
       <c r="E34" t="n">
-        <v>100.38514768</v>
+        <v>100.17704237</v>
       </c>
       <c r="F34" t="n">
-        <v>100.70523182</v>
+        <v>99.94906442</v>
       </c>
       <c r="G34" t="n">
-        <v>100.51558479</v>
+        <v>100.20483327</v>
       </c>
       <c r="H34" t="n">
-        <v>100.10789058</v>
+        <v>100.11150182</v>
       </c>
       <c r="I34" t="n">
-        <v>100.74853497</v>
+        <v>99.78271224</v>
       </c>
       <c r="J34" t="n">
-        <v>101.54818382</v>
+        <v>99.48034646000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.6489413</v>
+        <v>100.30334551</v>
       </c>
       <c r="C35" t="n">
-        <v>100.29693091</v>
+        <v>100.249476</v>
       </c>
       <c r="D35" t="n">
-        <v>100.16778514</v>
+        <v>100.21710111</v>
       </c>
       <c r="E35" t="n">
-        <v>100.1963765</v>
+        <v>100.2287194</v>
       </c>
       <c r="F35" t="n">
-        <v>100.18135545</v>
+        <v>100.30887409</v>
       </c>
       <c r="G35" t="n">
-        <v>99.96230648</v>
+        <v>101.4627255</v>
       </c>
       <c r="H35" t="n">
-        <v>100.09684695</v>
+        <v>100.11932745</v>
       </c>
       <c r="I35" t="n">
-        <v>100.7731348</v>
+        <v>99.6396336</v>
       </c>
       <c r="J35" t="n">
-        <v>99.92169908</v>
+        <v>100.16607356</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>98.96992363</v>
+        <v>99.97889271</v>
       </c>
       <c r="C36" t="n">
-        <v>100.18344601</v>
+        <v>100.11959021</v>
       </c>
       <c r="D36" t="n">
-        <v>100.17482467</v>
+        <v>100.39696027</v>
       </c>
       <c r="E36" t="n">
-        <v>100.04880071</v>
+        <v>100.5368676</v>
       </c>
       <c r="F36" t="n">
-        <v>99.65379280000001</v>
+        <v>100.65548301</v>
       </c>
       <c r="G36" t="n">
-        <v>99.44428195</v>
+        <v>100.16880296</v>
       </c>
       <c r="H36" t="n">
-        <v>100.0538091</v>
+        <v>100.09626397</v>
       </c>
       <c r="I36" t="n">
-        <v>100.450762</v>
+        <v>99.90738908</v>
       </c>
       <c r="J36" t="n">
-        <v>99.22757025</v>
+        <v>101.66979556</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.10543853</v>
+        <v>100.25669433</v>
       </c>
       <c r="C37" t="n">
-        <v>100.0245149</v>
+        <v>99.78757658000001</v>
       </c>
       <c r="D37" t="n">
-        <v>100.12403524</v>
+        <v>100.199913</v>
       </c>
       <c r="E37" t="n">
-        <v>100.0007414</v>
+        <v>100.38514768</v>
       </c>
       <c r="F37" t="n">
-        <v>100.02729293</v>
+        <v>100.70523182</v>
       </c>
       <c r="G37" t="n">
-        <v>99.97153056000001</v>
+        <v>100.51558479</v>
       </c>
       <c r="H37" t="n">
-        <v>100.17765397</v>
+        <v>100.10789058</v>
       </c>
       <c r="I37" t="n">
-        <v>100.13142198</v>
+        <v>100.74853497</v>
       </c>
       <c r="J37" t="n">
-        <v>100.75495248</v>
+        <v>101.54818382</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2019-01</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>99.82777969999999</v>
+        <v>100.07136075</v>
       </c>
       <c r="C38" t="n">
-        <v>101.38765077</v>
+        <v>100.07975638</v>
       </c>
       <c r="D38" t="n">
-        <v>100.36274237</v>
+        <v>100.07492473</v>
       </c>
       <c r="E38" t="n">
-        <v>99.99157533</v>
+        <v>99.98970070999999</v>
       </c>
       <c r="F38" t="n">
-        <v>100.50252218</v>
+        <v>100.89322145</v>
       </c>
       <c r="G38" t="n">
-        <v>101.0175008</v>
+        <v>100.12184219</v>
       </c>
       <c r="H38" t="n">
-        <v>100.3477009</v>
+        <v>100.08300133</v>
       </c>
       <c r="I38" t="n">
-        <v>99.71725099</v>
+        <v>100.30749622</v>
       </c>
       <c r="J38" t="n">
-        <v>101.1306617</v>
+        <v>102.68061575</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2019-02</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>101.00193251</v>
+        <v>99.71099753</v>
       </c>
       <c r="C39" t="n">
-        <v>100.18365747</v>
+        <v>99.22805133</v>
       </c>
       <c r="D39" t="n">
-        <v>100.22653406</v>
+        <v>100.07300518</v>
       </c>
       <c r="E39" t="n">
-        <v>100.13778598</v>
+        <v>99.96227309</v>
       </c>
       <c r="F39" t="n">
-        <v>100.99247533</v>
+        <v>100.35813095</v>
       </c>
       <c r="G39" t="n">
-        <v>101.28200329</v>
+        <v>99.27729465</v>
       </c>
       <c r="H39" t="n">
-        <v>100.09174157</v>
+        <v>99.90686857</v>
       </c>
       <c r="I39" t="n">
-        <v>99.81176932</v>
+        <v>100.34944757</v>
       </c>
       <c r="J39" t="n">
-        <v>102.28665605</v>
+        <v>101.50227305</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2019-03</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.71805857</v>
+        <v>100.1520816</v>
       </c>
       <c r="C40" t="n">
-        <v>99.48204713</v>
+        <v>99.91906007999999</v>
       </c>
       <c r="D40" t="n">
-        <v>100.14287645</v>
+        <v>100.17392481</v>
       </c>
       <c r="E40" t="n">
-        <v>100.09614026</v>
+        <v>100.0862068</v>
       </c>
       <c r="F40" t="n">
-        <v>99.6316896</v>
+        <v>99.99546073</v>
       </c>
       <c r="G40" t="n">
-        <v>98.41239760000001</v>
+        <v>100.04548346</v>
       </c>
       <c r="H40" t="n">
-        <v>99.66338311</v>
+        <v>100.10864497</v>
       </c>
       <c r="I40" t="n">
-        <v>100.60787917</v>
+        <v>99.86274619</v>
       </c>
       <c r="J40" t="n">
-        <v>99.35689198999999</v>
+        <v>99.83833955</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2019-04</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.03871284</v>
+        <v>99.82777969999999</v>
       </c>
       <c r="C41" t="n">
-        <v>100.3775039</v>
+        <v>101.38765077</v>
       </c>
       <c r="D41" t="n">
-        <v>100.09971</v>
+        <v>100.36274237</v>
       </c>
       <c r="E41" t="n">
-        <v>100.04354491</v>
+        <v>99.99157533</v>
       </c>
       <c r="F41" t="n">
-        <v>100.07434424</v>
+        <v>100.50252218</v>
       </c>
       <c r="G41" t="n">
-        <v>100.32813775</v>
+        <v>101.0175008</v>
       </c>
       <c r="H41" t="n">
-        <v>100.07146385</v>
+        <v>100.3477009</v>
       </c>
       <c r="I41" t="n">
-        <v>100.04507051</v>
+        <v>99.71725099</v>
       </c>
       <c r="J41" t="n">
-        <v>99.98327274</v>
+        <v>101.1306617</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2019-05</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.99964928999999</v>
+        <v>101.00193251</v>
       </c>
       <c r="C42" t="n">
-        <v>100.0209883</v>
+        <v>100.18365747</v>
       </c>
       <c r="D42" t="n">
-        <v>100.13117612</v>
+        <v>100.22653406</v>
       </c>
       <c r="E42" t="n">
-        <v>99.96327728999999</v>
+        <v>100.13778598</v>
       </c>
       <c r="F42" t="n">
-        <v>100.03649242</v>
+        <v>100.99247533</v>
       </c>
       <c r="G42" t="n">
-        <v>99.82582626999999</v>
+        <v>101.28200329</v>
       </c>
       <c r="H42" t="n">
-        <v>100.02452013</v>
+        <v>100.09174157</v>
       </c>
       <c r="I42" t="n">
-        <v>100.11668466</v>
+        <v>99.81176932</v>
       </c>
       <c r="J42" t="n">
-        <v>100.14052566</v>
+        <v>102.28665605</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2019-06</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.28993475</v>
+        <v>99.71805857</v>
       </c>
       <c r="C43" t="n">
-        <v>100.56690895</v>
+        <v>99.48204713</v>
       </c>
       <c r="D43" t="n">
-        <v>100.26952596</v>
+        <v>100.14287645</v>
       </c>
       <c r="E43" t="n">
-        <v>99.95526141000001</v>
+        <v>100.09614026</v>
       </c>
       <c r="F43" t="n">
-        <v>99.88935613</v>
+        <v>99.6316896</v>
       </c>
       <c r="G43" t="n">
-        <v>100.01902577</v>
+        <v>98.41239760000001</v>
       </c>
       <c r="H43" t="n">
-        <v>99.94283691</v>
+        <v>99.66338311</v>
       </c>
       <c r="I43" t="n">
-        <v>99.85626359</v>
+        <v>100.60787917</v>
       </c>
       <c r="J43" t="n">
-        <v>99.84576272</v>
+        <v>99.35689198999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2019-07</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>100.05017098</v>
+        <v>100.03871284</v>
       </c>
       <c r="C44" t="n">
-        <v>100.88988856</v>
+        <v>100.3775039</v>
       </c>
       <c r="D44" t="n">
-        <v>100.24730704</v>
+        <v>100.09971</v>
       </c>
       <c r="E44" t="n">
-        <v>100.0905517</v>
+        <v>100.04354491</v>
       </c>
       <c r="F44" t="n">
-        <v>100.40773131</v>
+        <v>100.07434424</v>
       </c>
       <c r="G44" t="n">
-        <v>101.31922889</v>
+        <v>100.32813775</v>
       </c>
       <c r="H44" t="n">
-        <v>100.12212251</v>
+        <v>100.07146385</v>
       </c>
       <c r="I44" t="n">
-        <v>99.61611610999999</v>
+        <v>100.04507051</v>
       </c>
       <c r="J44" t="n">
-        <v>100.67940162</v>
+        <v>99.98327274</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2019-08</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.77114535</v>
+        <v>99.99964928999999</v>
       </c>
       <c r="C45" t="n">
-        <v>101.3757986</v>
+        <v>100.0209883</v>
       </c>
       <c r="D45" t="n">
-        <v>100.17412381</v>
+        <v>100.13117612</v>
       </c>
       <c r="E45" t="n">
-        <v>100.12994124</v>
+        <v>99.96327728999999</v>
       </c>
       <c r="F45" t="n">
-        <v>100.71505336</v>
+        <v>100.03649242</v>
       </c>
       <c r="G45" t="n">
-        <v>100.04191481</v>
+        <v>99.82582626999999</v>
       </c>
       <c r="H45" t="n">
-        <v>100.00127886</v>
+        <v>100.02452013</v>
       </c>
       <c r="I45" t="n">
-        <v>99.71692317999999</v>
+        <v>100.11668466</v>
       </c>
       <c r="J45" t="n">
-        <v>102.22977744</v>
+        <v>100.14052566</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2019-09</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.62715304</v>
+        <v>99.28993475</v>
       </c>
       <c r="C46" t="n">
-        <v>100.85354517</v>
+        <v>100.56690895</v>
       </c>
       <c r="D46" t="n">
-        <v>100.06668504</v>
+        <v>100.26952596</v>
       </c>
       <c r="E46" t="n">
-        <v>100.07334128</v>
+        <v>99.95526141000001</v>
       </c>
       <c r="F46" t="n">
-        <v>100.88107003</v>
+        <v>99.88935613</v>
       </c>
       <c r="G46" t="n">
-        <v>100.14609821</v>
+        <v>100.01902577</v>
       </c>
       <c r="H46" t="n">
-        <v>99.99589447</v>
+        <v>99.94283691</v>
       </c>
       <c r="I46" t="n">
-        <v>100.79836896</v>
+        <v>99.85626359</v>
       </c>
       <c r="J46" t="n">
-        <v>102.59866568</v>
+        <v>99.84576272</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>100.07136075</v>
+        <v>100.05017098</v>
       </c>
       <c r="C47" t="n">
-        <v>100.07975638</v>
+        <v>100.88988856</v>
       </c>
       <c r="D47" t="n">
-        <v>100.07492473</v>
+        <v>100.24730704</v>
       </c>
       <c r="E47" t="n">
-        <v>99.98970070999999</v>
+        <v>100.0905517</v>
       </c>
       <c r="F47" t="n">
-        <v>100.89322145</v>
+        <v>100.40773131</v>
       </c>
       <c r="G47" t="n">
-        <v>100.12184219</v>
+        <v>101.31922889</v>
       </c>
       <c r="H47" t="n">
-        <v>100.08300133</v>
+        <v>100.12212251</v>
       </c>
       <c r="I47" t="n">
-        <v>100.30749622</v>
+        <v>99.61611610999999</v>
       </c>
       <c r="J47" t="n">
-        <v>102.68061575</v>
+        <v>100.67940162</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.71099753</v>
+        <v>99.77114535</v>
       </c>
       <c r="C48" t="n">
-        <v>99.22805133</v>
+        <v>101.3757986</v>
       </c>
       <c r="D48" t="n">
-        <v>100.07300518</v>
+        <v>100.17412381</v>
       </c>
       <c r="E48" t="n">
-        <v>99.96227309</v>
+        <v>100.12994124</v>
       </c>
       <c r="F48" t="n">
-        <v>100.35813095</v>
+        <v>100.71505336</v>
       </c>
       <c r="G48" t="n">
-        <v>99.27729465</v>
+        <v>100.04191481</v>
       </c>
       <c r="H48" t="n">
-        <v>99.90686857</v>
+        <v>100.00127886</v>
       </c>
       <c r="I48" t="n">
-        <v>100.34944757</v>
+        <v>99.71692317999999</v>
       </c>
       <c r="J48" t="n">
-        <v>101.50227305</v>
+        <v>102.22977744</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100.1520816</v>
+        <v>99.62715304</v>
       </c>
       <c r="C49" t="n">
-        <v>99.91906007999999</v>
+        <v>100.85354517</v>
       </c>
       <c r="D49" t="n">
-        <v>100.17392481</v>
+        <v>100.06668504</v>
       </c>
       <c r="E49" t="n">
-        <v>100.0862068</v>
+        <v>100.07334128</v>
       </c>
       <c r="F49" t="n">
-        <v>99.99546073</v>
+        <v>100.88107003</v>
       </c>
       <c r="G49" t="n">
-        <v>100.04548346</v>
+        <v>100.14609821</v>
       </c>
       <c r="H49" t="n">
-        <v>100.10864497</v>
+        <v>99.99589447</v>
       </c>
       <c r="I49" t="n">
-        <v>99.86274619</v>
+        <v>100.79836896</v>
       </c>
       <c r="J49" t="n">
-        <v>99.83833955</v>
+        <v>102.59866568</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2020-01</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>101.43524246</v>
+        <v>99.8</v>
       </c>
       <c r="C50" t="n">
-        <v>101.77327226</v>
+        <v>98.3</v>
       </c>
       <c r="D50" t="n">
-        <v>100.55885459</v>
+        <v>100.1</v>
       </c>
       <c r="E50" t="n">
-        <v>99.97842758</v>
+        <v>100.1</v>
       </c>
       <c r="F50" t="n">
-        <v>101.39674824</v>
+        <v>99.7</v>
       </c>
       <c r="G50" t="n">
-        <v>101.43032657</v>
+        <v>100.6</v>
       </c>
       <c r="H50" t="n">
-        <v>100.22112011</v>
+        <v>100.1</v>
       </c>
       <c r="I50" t="n">
-        <v>99.46951899</v>
+        <v>100.4</v>
       </c>
       <c r="J50" t="n">
-        <v>103.14976113</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2020-02</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>98.53716106</v>
+        <v>99.7</v>
       </c>
       <c r="C51" t="n">
-        <v>99.79814915</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>100.1199699</v>
+        <v>100</v>
       </c>
       <c r="E51" t="n">
-        <v>99.89200504999999</v>
+        <v>100</v>
       </c>
       <c r="F51" t="n">
-        <v>100.79142578</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G51" t="n">
-        <v>100.01708607</v>
+        <v>99.2</v>
       </c>
       <c r="H51" t="n">
-        <v>99.92301972</v>
+        <v>100</v>
       </c>
       <c r="I51" t="n">
-        <v>99.73309979</v>
+        <v>100.3</v>
       </c>
       <c r="J51" t="n">
-        <v>103.04843417</v>
+        <v>98.40000000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2020-03</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>97.54020146000001</v>
+        <v>100.9</v>
       </c>
       <c r="C52" t="n">
-        <v>100.36114785</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>100.16246892</v>
+        <v>100</v>
       </c>
       <c r="E52" t="n">
-        <v>99.72708038</v>
+        <v>100.1</v>
       </c>
       <c r="F52" t="n">
-        <v>98.77465900999999</v>
+        <v>100.7</v>
       </c>
       <c r="G52" t="n">
-        <v>99.94754424</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>99.87374179</v>
+        <v>100.1</v>
       </c>
       <c r="I52" t="n">
-        <v>99.85370317</v>
+        <v>100</v>
       </c>
       <c r="J52" t="n">
-        <v>97.28650614999999</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2020-04</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>98.82167534</v>
+        <v>101.43524246</v>
       </c>
       <c r="C53" t="n">
-        <v>99.87364531</v>
+        <v>101.77327226</v>
       </c>
       <c r="D53" t="n">
-        <v>100.17344227</v>
+        <v>100.55885459</v>
       </c>
       <c r="E53" t="n">
-        <v>99.81585174</v>
+        <v>99.97842758</v>
       </c>
       <c r="F53" t="n">
-        <v>99.13562856</v>
+        <v>101.39674824</v>
       </c>
       <c r="G53" t="n">
-        <v>99.80756304000001</v>
+        <v>101.43032657</v>
       </c>
       <c r="H53" t="n">
-        <v>99.90945474</v>
+        <v>100.22112011</v>
       </c>
       <c r="I53" t="n">
-        <v>99.93905875</v>
+        <v>99.46951899</v>
       </c>
       <c r="J53" t="n">
-        <v>97.92978153999999</v>
+        <v>103.14976113</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2020-05</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>99.8398471</v>
+        <v>98.53716106</v>
       </c>
       <c r="C54" t="n">
-        <v>100.48031265</v>
+        <v>99.79814915</v>
       </c>
       <c r="D54" t="n">
-        <v>100.00485169</v>
+        <v>100.1199699</v>
       </c>
       <c r="E54" t="n">
-        <v>99.83196040999999</v>
+        <v>99.89200504999999</v>
       </c>
       <c r="F54" t="n">
-        <v>99.20915008999999</v>
+        <v>100.79142578</v>
       </c>
       <c r="G54" t="n">
-        <v>100.02581579</v>
+        <v>100.01708607</v>
       </c>
       <c r="H54" t="n">
-        <v>100.01406068</v>
+        <v>99.92301972</v>
       </c>
       <c r="I54" t="n">
-        <v>100.1527584</v>
+        <v>99.73309979</v>
       </c>
       <c r="J54" t="n">
-        <v>97.62715011</v>
+        <v>103.04843417</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2020-06</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>99.74692236999999</v>
+        <v>97.54020146000001</v>
       </c>
       <c r="C55" t="n">
-        <v>100.38615304</v>
+        <v>100.36114785</v>
       </c>
       <c r="D55" t="n">
-        <v>100.00960986</v>
+        <v>100.16246892</v>
       </c>
       <c r="E55" t="n">
-        <v>99.83265532</v>
+        <v>99.72708038</v>
       </c>
       <c r="F55" t="n">
-        <v>99.93391647</v>
+        <v>98.77465900999999</v>
       </c>
       <c r="G55" t="n">
-        <v>99.72675887</v>
+        <v>99.94754424</v>
       </c>
       <c r="H55" t="n">
-        <v>99.87689817</v>
+        <v>99.87374179</v>
       </c>
       <c r="I55" t="n">
-        <v>99.77521629</v>
+        <v>99.85370317</v>
       </c>
       <c r="J55" t="n">
-        <v>100.12219612</v>
+        <v>97.28650614999999</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2020-07</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>100.31161714</v>
+        <v>98.82167534</v>
       </c>
       <c r="C56" t="n">
-        <v>100.84837639</v>
+        <v>99.87364531</v>
       </c>
       <c r="D56" t="n">
-        <v>100.01052023</v>
+        <v>100.17344227</v>
       </c>
       <c r="E56" t="n">
-        <v>99.95405722</v>
+        <v>99.81585174</v>
       </c>
       <c r="F56" t="n">
-        <v>100.61586097</v>
+        <v>99.13562856</v>
       </c>
       <c r="G56" t="n">
-        <v>99.75047632</v>
+        <v>99.80756304000001</v>
       </c>
       <c r="H56" t="n">
-        <v>100.02246197</v>
+        <v>99.90945474</v>
       </c>
       <c r="I56" t="n">
-        <v>99.51653407000001</v>
+        <v>99.93905875</v>
       </c>
       <c r="J56" t="n">
-        <v>101.96813927</v>
+        <v>97.92978153999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2020-08</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>100.26393398</v>
+        <v>99.8398471</v>
       </c>
       <c r="C57" t="n">
-        <v>102.37403868</v>
+        <v>100.48031265</v>
       </c>
       <c r="D57" t="n">
-        <v>100.08328273</v>
+        <v>100.00485169</v>
       </c>
       <c r="E57" t="n">
-        <v>100.105099</v>
+        <v>99.83196040999999</v>
       </c>
       <c r="F57" t="n">
-        <v>100.40097153</v>
+        <v>99.20915008999999</v>
       </c>
       <c r="G57" t="n">
-        <v>99.69080906000001</v>
+        <v>100.02581579</v>
       </c>
       <c r="H57" t="n">
-        <v>99.97278337</v>
+        <v>100.01406068</v>
       </c>
       <c r="I57" t="n">
-        <v>99.79579581</v>
+        <v>100.1527584</v>
       </c>
       <c r="J57" t="n">
-        <v>100.99359071</v>
+        <v>97.62715011</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2020-09</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>99.93325651000001</v>
+        <v>99.74692236999999</v>
       </c>
       <c r="C58" t="n">
-        <v>99.10047468</v>
+        <v>100.38615304</v>
       </c>
       <c r="D58" t="n">
-        <v>100.02917742</v>
+        <v>100.00960986</v>
       </c>
       <c r="E58" t="n">
-        <v>100.0412301</v>
+        <v>99.83265532</v>
       </c>
       <c r="F58" t="n">
-        <v>100.23254104</v>
+        <v>99.93391647</v>
       </c>
       <c r="G58" t="n">
-        <v>100.82875498</v>
+        <v>99.72675887</v>
       </c>
       <c r="H58" t="n">
-        <v>99.95568982</v>
+        <v>99.87689817</v>
       </c>
       <c r="I58" t="n">
-        <v>100.85099201</v>
+        <v>99.77521629</v>
       </c>
       <c r="J58" t="n">
-        <v>100.31219585</v>
+        <v>100.12219612</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>99.8</v>
+        <v>100.31161714</v>
       </c>
       <c r="C59" t="n">
-        <v>98.3</v>
+        <v>100.84837639</v>
       </c>
       <c r="D59" t="n">
-        <v>100.1</v>
+        <v>100.01052023</v>
       </c>
       <c r="E59" t="n">
-        <v>100.1</v>
+        <v>99.95405722</v>
       </c>
       <c r="F59" t="n">
-        <v>99.7</v>
+        <v>100.61586097</v>
       </c>
       <c r="G59" t="n">
-        <v>100.6</v>
+        <v>99.75047632</v>
       </c>
       <c r="H59" t="n">
-        <v>100.1</v>
+        <v>100.02246197</v>
       </c>
       <c r="I59" t="n">
-        <v>100.4</v>
+        <v>99.51653407000001</v>
       </c>
       <c r="J59" t="n">
-        <v>98.8</v>
+        <v>101.96813927</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>99.7</v>
+        <v>100.26393398</v>
       </c>
       <c r="C60" t="n">
-        <v>99.40000000000001</v>
+        <v>102.37403868</v>
       </c>
       <c r="D60" t="n">
-        <v>100</v>
+        <v>100.08328273</v>
       </c>
       <c r="E60" t="n">
-        <v>100</v>
+        <v>100.105099</v>
       </c>
       <c r="F60" t="n">
-        <v>99.40000000000001</v>
+        <v>100.40097153</v>
       </c>
       <c r="G60" t="n">
-        <v>99.2</v>
+        <v>99.69080906000001</v>
       </c>
       <c r="H60" t="n">
-        <v>100</v>
+        <v>99.97278337</v>
       </c>
       <c r="I60" t="n">
-        <v>100.3</v>
+        <v>99.79579581</v>
       </c>
       <c r="J60" t="n">
-        <v>98.40000000000001</v>
+        <v>100.99359071</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>100.9</v>
+        <v>99.93325651000001</v>
       </c>
       <c r="C61" t="n">
-        <v>99.59999999999999</v>
+        <v>99.10047468</v>
       </c>
       <c r="D61" t="n">
-        <v>100</v>
+        <v>100.02917742</v>
       </c>
       <c r="E61" t="n">
-        <v>100.1</v>
+        <v>100.0412301</v>
       </c>
       <c r="F61" t="n">
-        <v>100.7</v>
+        <v>100.23254104</v>
       </c>
       <c r="G61" t="n">
-        <v>99.90000000000001</v>
+        <v>100.82875498</v>
       </c>
       <c r="H61" t="n">
-        <v>100.1</v>
+        <v>99.95568982</v>
       </c>
       <c r="I61" t="n">
-        <v>100</v>
+        <v>100.85099201</v>
       </c>
       <c r="J61" t="n">
-        <v>102</v>
+        <v>100.31219585</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2021-01</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="C62" t="n">
-        <v>100.5</v>
+        <v>100.1</v>
       </c>
       <c r="D62" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="E62" t="n">
-        <v>100.1</v>
+        <v>100.4</v>
       </c>
       <c r="F62" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="G62" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="H62" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="I62" t="n">
-        <v>99.59999999999999</v>
+        <v>100.3</v>
       </c>
       <c r="J62" t="n">
-        <v>102.8</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2021-02</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>101.1</v>
+        <v>100.3</v>
       </c>
       <c r="C63" t="n">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="D63" t="n">
         <v>100</v>
       </c>
       <c r="E63" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="F63" t="n">
-        <v>100.6</v>
+        <v>100.4</v>
       </c>
       <c r="G63" t="n">
-        <v>100.8</v>
+        <v>99.5</v>
       </c>
       <c r="H63" t="n">
-        <v>100.1</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I63" t="n">
-        <v>99.5</v>
+        <v>100.3</v>
       </c>
       <c r="J63" t="n">
-        <v>101.2</v>
+        <v>101.6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2021-03</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>101.3</v>
+        <v>98.7</v>
       </c>
       <c r="C64" t="n">
-        <v>99.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D64" t="n">
         <v>100</v>
       </c>
       <c r="E64" t="n">
-        <v>100.2</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>99.5</v>
+        <v>99.7</v>
       </c>
       <c r="G64" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="H64" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="I64" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="J64" t="n">
-        <v>97.59999999999999</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2021-04</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B65" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="C65" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>101</v>
+      </c>
+      <c r="G65" t="n">
         <v>100.4</v>
       </c>
-      <c r="C65" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="D65" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="F65" t="n">
-        <v>99.7</v>
-      </c>
-      <c r="G65" t="n">
-        <v>100.7</v>
-      </c>
       <c r="H65" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="I65" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J65" t="n">
-        <v>98.5</v>
+        <v>102.8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2021-05</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>100.4</v>
+        <v>101.1</v>
       </c>
       <c r="C66" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D66" t="n">
+        <v>100</v>
+      </c>
+      <c r="E66" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F66" t="n">
         <v>100.6</v>
       </c>
-      <c r="D66" t="n">
-        <v>100</v>
-      </c>
-      <c r="E66" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="F66" t="n">
-        <v>99.8</v>
-      </c>
       <c r="G66" t="n">
-        <v>100.3</v>
+        <v>100.8</v>
       </c>
       <c r="H66" t="n">
-        <v>99.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="I66" t="n">
-        <v>100.3</v>
+        <v>99.5</v>
       </c>
       <c r="J66" t="n">
-        <v>99</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2021-06</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>100.1</v>
+        <v>101.3</v>
       </c>
       <c r="C67" t="n">
-        <v>100.1</v>
+        <v>99.2</v>
       </c>
       <c r="D67" t="n">
         <v>100</v>
       </c>
       <c r="E67" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="F67" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G67" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="G67" t="n">
-        <v>99.8</v>
-      </c>
       <c r="H67" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>99.8</v>
+        <v>100.4</v>
       </c>
       <c r="J67" t="n">
-        <v>98.59999999999999</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2021-07</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>101.5</v>
+        <v>100.4</v>
       </c>
       <c r="C68" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="D68" t="n">
         <v>100.1</v>
       </c>
       <c r="E68" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="F68" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="G68" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="H68" t="n">
         <v>100.3</v>
       </c>
-      <c r="G68" t="n">
-        <v>101</v>
-      </c>
-      <c r="H68" t="n">
-        <v>100.4</v>
-      </c>
       <c r="I68" t="n">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="J68" t="n">
-        <v>99.8</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2021-08</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>99.40000000000001</v>
+        <v>100.4</v>
       </c>
       <c r="C69" t="n">
-        <v>99.09999999999999</v>
+        <v>100.6</v>
       </c>
       <c r="D69" t="n">
         <v>100</v>
@@ -2777,155 +2777,801 @@
         <v>100.1</v>
       </c>
       <c r="F69" t="n">
-        <v>100.1</v>
+        <v>99.8</v>
       </c>
       <c r="G69" t="n">
-        <v>100</v>
+        <v>100.3</v>
       </c>
       <c r="H69" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I69" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="J69" t="n">
-        <v>100.5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2021-09</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B70" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>100</v>
+      </c>
+      <c r="E70" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="G70" t="n">
         <v>99.8</v>
       </c>
-      <c r="C70" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="D70" t="n">
-        <v>100</v>
-      </c>
-      <c r="E70" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="F70" t="n">
-        <v>100</v>
-      </c>
-      <c r="G70" t="n">
-        <v>100.7</v>
-      </c>
       <c r="H70" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="I70" t="n">
-        <v>100.8</v>
+        <v>99.8</v>
       </c>
       <c r="J70" t="n">
-        <v>99.59999999999999</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B71" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="C71" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="D71" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="F71" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="G71" t="n">
         <v>101</v>
       </c>
-      <c r="C71" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="E71" t="n">
+      <c r="H71" t="n">
         <v>100.4</v>
       </c>
-      <c r="F71" t="n">
-        <v>100.7</v>
-      </c>
-      <c r="G71" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="H71" t="n">
-        <v>100.3</v>
-      </c>
       <c r="I71" t="n">
-        <v>100.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="J71" t="n">
-        <v>101.2</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>100.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D72" t="n">
         <v>100</v>
       </c>
       <c r="E72" t="n">
-        <v>100</v>
+        <v>100.1</v>
       </c>
       <c r="F72" t="n">
-        <v>100.4</v>
+        <v>100.1</v>
       </c>
       <c r="G72" t="n">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="H72" t="n">
-        <v>99.59999999999999</v>
+        <v>100.1</v>
       </c>
       <c r="I72" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J72" t="n">
-        <v>101.6</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021-12</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B73" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C73" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>100</v>
+      </c>
+      <c r="E73" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="F73" t="n">
+        <v>100</v>
+      </c>
+      <c r="G73" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="H73" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I73" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="J73" t="n">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C74" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="D74" t="n">
+        <v>100</v>
+      </c>
+      <c r="E74" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F74" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="G74" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="H74" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D75" t="n">
+        <v>100</v>
+      </c>
+      <c r="E75" t="n">
+        <v>100</v>
+      </c>
+      <c r="F75" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G75" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="H75" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="I75" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="C76" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="D76" t="n">
+        <v>100</v>
+      </c>
+      <c r="E76" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F76" t="n">
+        <v>100</v>
+      </c>
+      <c r="G76" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H76" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I76" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="D77" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>100</v>
+      </c>
+      <c r="F77" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="G77" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="H77" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I77" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="J77" t="n">
+        <v>101.1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="C78" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>100</v>
+      </c>
+      <c r="E78" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="G78" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="H78" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I78" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="J78" t="n">
+        <v>101.2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="C79" t="n">
+        <v>101</v>
+      </c>
+      <c r="D79" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>100</v>
+      </c>
+      <c r="G79" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="H79" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I79" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J79" t="n">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>100</v>
+      </c>
+      <c r="D80" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E80" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F80" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="G80" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H80" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="I80" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J80" t="n">
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="D81" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E81" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F81" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G81" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H81" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="I81" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="C82" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>100</v>
+      </c>
+      <c r="E82" t="n">
+        <v>100</v>
+      </c>
+      <c r="F82" t="n">
+        <v>100</v>
+      </c>
+      <c r="G82" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="I82" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J82" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="C83" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>100</v>
+      </c>
+      <c r="E83" t="n">
+        <v>100</v>
+      </c>
+      <c r="F83" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="G83" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="H83" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="I83" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="J83" t="n">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="C84" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E84" t="n">
+        <v>100</v>
+      </c>
+      <c r="F84" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="G84" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>100</v>
+      </c>
+      <c r="I84" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J84" t="n">
+        <v>100.4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C85" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D85" t="n">
+        <v>100</v>
+      </c>
+      <c r="E85" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F85" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="G85" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="H85" t="n">
+        <v>100</v>
+      </c>
+      <c r="I85" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="J85" t="n">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>2023-01</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="C86" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="D86" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="E86" t="n">
+        <v>100</v>
+      </c>
+      <c r="F86" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="G86" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="H86" t="n">
+        <v>100</v>
+      </c>
+      <c r="I86" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>2023-02</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D87" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="E87" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="G87" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="H87" t="n">
+        <v>100</v>
+      </c>
+      <c r="I87" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J87" t="n">
         <v>98.7</v>
       </c>
-      <c r="C73" t="n">
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>2023-03</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C88" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="D88" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E88" t="n">
+        <v>100</v>
+      </c>
+      <c r="F88" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="G88" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="D73" t="n">
-        <v>100</v>
-      </c>
-      <c r="E73" t="n">
+      <c r="H88" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="I88" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>2023-04</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C89" t="n">
+        <v>101</v>
+      </c>
+      <c r="D89" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E89" t="n">
+        <v>100</v>
+      </c>
+      <c r="F89" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G89" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="H89" t="n">
+        <v>100</v>
+      </c>
+      <c r="I89" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="J89" t="n">
+        <v>99.40000000000001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>2023-05</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C90" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="D90" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E90" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F90" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G90" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="H90" t="n">
+        <v>100</v>
+      </c>
+      <c r="I90" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="J90" t="n">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>2023-06</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D91" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E91" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="G91" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="H91" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="I91" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="J91" t="n">
+        <v>99.8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>2023-07</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="D92" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="G92" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="H92" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="I92" t="n">
         <v>99.7</v>
       </c>
-      <c r="G73" t="n">
-        <v>100</v>
-      </c>
-      <c r="H73" t="n">
-        <v>100.3</v>
-      </c>
-      <c r="I73" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>99.7</v>
+      <c r="J92" t="n">
+        <v>99.40000000000001</v>
       </c>
     </row>
   </sheetData>
